--- a/Parte 3/Esercizio 4/esercizio.xlsx
+++ b/Parte 3/Esercizio 4/esercizio.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>B95</t>
   </si>
@@ -24,11 +24,26 @@
   <si>
     <t>Dieseltech</t>
   </si>
+  <si>
+    <t>PERIODO</t>
+  </si>
+  <si>
+    <t>INIZIALE</t>
+  </si>
+  <si>
+    <t>FINALE</t>
+  </si>
+  <si>
+    <t>NUMERO CELLA</t>
+  </si>
+  <si>
+    <t>DOMANDE OGNI 14 GIORNI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -52,7 +67,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -154,11 +169,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -170,18 +340,45 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -189,6 +386,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -552,15 +756,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R369"/>
+  <dimension ref="A1:V398"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R68" sqref="R68"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="O400" sqref="O400"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>484</v>
       </c>
@@ -580,7 +787,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -636,63 +843,63 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
         <v>666</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="12">
         <v>128</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="13">
         <v>443</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="11">
         <v>1201</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="12">
         <v>89</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="13">
         <v>434</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="11">
         <v>477</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="12">
         <v>16</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="13">
         <v>483</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="11">
         <v>1494</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="12">
         <v>248</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="13">
         <v>1017</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="11">
         <v>715</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="12">
         <v>83</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="13">
         <v>298</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="11">
         <v>550</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="12">
         <v>130</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="13">
         <v>519</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>72</v>
       </c>
@@ -747,8 +954,9 @@
       <c r="R4" s="3">
         <v>304</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T4" s="10"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>622</v>
       </c>
@@ -804,7 +1012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>447</v>
       </c>
@@ -860,7 +1068,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>500</v>
       </c>
@@ -916,7 +1124,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>823</v>
       </c>
@@ -972,7 +1180,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>773</v>
       </c>
@@ -1028,7 +1236,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1114</v>
       </c>
@@ -1084,7 +1292,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>589</v>
       </c>
@@ -1140,7 +1348,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>554</v>
       </c>
@@ -1196,7 +1404,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>556</v>
       </c>
@@ -1252,7 +1460,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>878</v>
       </c>
@@ -1308,7 +1516,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>636</v>
       </c>
@@ -1364,119 +1572,119 @@
         <v>923</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
         <v>521</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="15">
         <v>24</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="16">
         <v>443</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="14">
         <v>1797</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="15">
         <v>166</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="16">
         <v>1305</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="14">
         <v>733</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="15">
         <v>35</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="16">
         <v>483</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="14">
         <v>1851</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="15">
         <v>364</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="16">
         <v>1178</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="14">
         <v>676</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="15">
         <v>19</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="16">
         <v>658</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="14">
         <v>975</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="15">
         <v>124</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="16">
         <v>799</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
         <v>823</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="18">
         <v>0</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="19">
         <v>443</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="17">
         <v>1353</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="18">
         <v>108</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="19">
         <v>687</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="17">
         <v>891</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="18">
         <v>193</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="19">
         <v>483</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="17">
         <v>1744</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="18">
         <v>423</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="19">
         <v>1180</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="17">
         <v>833</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="18">
         <v>0</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="19">
         <v>276</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="17">
         <v>1115</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="18">
         <v>199</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="19">
         <v>1468</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>618</v>
       </c>
@@ -1532,7 +1740,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>503</v>
       </c>
@@ -1588,7 +1796,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>295</v>
       </c>
@@ -1644,7 +1852,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>775</v>
       </c>
@@ -1700,7 +1908,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>418</v>
       </c>
@@ -1756,7 +1964,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>384</v>
       </c>
@@ -1812,7 +2020,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>580</v>
       </c>
@@ -1868,7 +2076,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>631</v>
       </c>
@@ -1924,7 +2132,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>651</v>
       </c>
@@ -1980,7 +2188,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>402</v>
       </c>
@@ -2036,7 +2244,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>696</v>
       </c>
@@ -2092,7 +2300,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>532</v>
       </c>
@@ -2148,119 +2356,119 @@
         <v>540</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
         <v>366</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="15">
         <v>22</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="16">
         <v>279</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="14">
         <v>1418</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="15">
         <v>120</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="16">
         <v>925</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="14">
         <v>581</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="15">
         <v>47</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="16">
         <v>523</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="14">
         <v>1679</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="15">
         <v>173</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="16">
         <v>928</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="14">
         <v>934</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="15">
         <v>183</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="16">
         <v>623</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="14">
         <v>978</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q30" s="15">
         <v>180</v>
       </c>
-      <c r="R30" s="3">
+      <c r="R30" s="16">
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="17">
         <v>1084</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="18">
         <v>87</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="19">
         <v>443</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="17">
         <v>1565</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="18">
         <v>112</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="19">
         <v>534</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="17">
         <v>546</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="18">
         <v>81</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="19">
         <v>329</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="17">
         <v>1493</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="18">
         <v>178</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="19">
         <v>1173</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="17">
         <v>342</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="18">
         <v>114</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31" s="19">
         <v>568</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="17">
         <v>989</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="18">
         <v>170</v>
       </c>
-      <c r="R31" s="3">
+      <c r="R31" s="19">
         <v>568</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>394</v>
       </c>
@@ -2316,7 +2524,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>811</v>
       </c>
@@ -2372,7 +2580,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>585</v>
       </c>
@@ -2428,7 +2636,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>452</v>
       </c>
@@ -2484,7 +2692,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>479</v>
       </c>
@@ -2540,7 +2748,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>577</v>
       </c>
@@ -2596,7 +2804,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>1034</v>
       </c>
@@ -2652,7 +2860,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>960</v>
       </c>
@@ -2708,7 +2916,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>968</v>
       </c>
@@ -2764,7 +2972,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>544</v>
       </c>
@@ -2820,7 +3028,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>774</v>
       </c>
@@ -2876,7 +3084,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>620</v>
       </c>
@@ -2932,119 +3140,119 @@
         <v>717</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
         <v>369</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="15">
         <v>126</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="16">
         <v>46</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="14">
         <v>1202</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="15">
         <v>133</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="16">
         <v>745</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="14">
         <v>574</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="15">
         <v>131</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="16">
         <v>457</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44" s="14">
         <v>1524</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="15">
         <v>133</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="16">
         <v>771</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44" s="14">
         <v>654</v>
       </c>
-      <c r="N44" s="2">
+      <c r="N44" s="15">
         <v>44</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="16">
         <v>330</v>
       </c>
-      <c r="P44" s="1">
+      <c r="P44" s="14">
         <v>675</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="Q44" s="15">
         <v>94</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="16">
         <v>343</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="17">
         <v>1487</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="18">
         <v>77</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="19">
         <v>13</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="17">
         <v>1650</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="18">
         <v>294</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="19">
         <v>1568</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="17">
         <v>475</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="18">
         <v>183</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="19">
         <v>835</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="17">
         <v>2595</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="18">
         <v>241</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="19">
         <v>1478</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45" s="17">
         <v>749</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N45" s="18">
         <v>131</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="19">
         <v>451</v>
       </c>
-      <c r="P45" s="1">
+      <c r="P45" s="17">
         <v>1340</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="Q45" s="18">
         <v>254</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="19">
         <v>1545</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>838</v>
       </c>
@@ -3100,7 +3308,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>1331</v>
       </c>
@@ -3156,7 +3364,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>863</v>
       </c>
@@ -3212,7 +3420,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>399</v>
       </c>
@@ -3268,7 +3476,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>893</v>
       </c>
@@ -3324,7 +3532,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>1101</v>
       </c>
@@ -3380,7 +3588,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>718</v>
       </c>
@@ -3436,7 +3644,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>739</v>
       </c>
@@ -3492,7 +3700,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>369</v>
       </c>
@@ -3548,7 +3756,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>595</v>
       </c>
@@ -3604,7 +3812,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>522</v>
       </c>
@@ -3660,7 +3868,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>379</v>
       </c>
@@ -3716,119 +3924,119 @@
         <v>679</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" s="14">
         <v>676</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="15">
         <v>77</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="16">
         <v>354</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="14">
         <v>1771</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="15">
         <v>162</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="16">
         <v>1565</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58" s="14">
         <v>908</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="15">
         <v>12</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="16">
         <v>352</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J58" s="14">
         <v>1523</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K58" s="15">
         <v>252</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="16">
         <v>1393</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M58" s="14">
         <v>600</v>
       </c>
-      <c r="N58" s="2">
+      <c r="N58" s="15">
         <v>112</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="16">
         <v>298</v>
       </c>
-      <c r="P58" s="1">
+      <c r="P58" s="14">
         <v>700</v>
       </c>
-      <c r="Q58" s="2">
+      <c r="Q58" s="15">
         <v>294</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="16">
         <v>546</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" s="17">
         <v>534</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="18">
         <v>105</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="19">
         <v>2124</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="17">
         <v>1719</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="18">
         <v>32</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="19">
         <v>858</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="17">
         <v>915</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="18">
         <v>26</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="19">
         <v>873</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59" s="17">
         <v>2073</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K59" s="18">
         <v>338</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="19">
         <v>1198</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M59" s="17">
         <v>600</v>
       </c>
-      <c r="N59" s="2">
+      <c r="N59" s="18">
         <v>112</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="19">
         <v>298</v>
       </c>
-      <c r="P59" s="1">
+      <c r="P59" s="17">
         <v>1121</v>
       </c>
-      <c r="Q59" s="2">
+      <c r="Q59" s="18">
         <v>136</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="19">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>867</v>
       </c>
@@ -3884,7 +4092,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>416</v>
       </c>
@@ -3940,7 +4148,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>579</v>
       </c>
@@ -3996,7 +4204,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>744</v>
       </c>
@@ -4052,7 +4260,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>1177</v>
       </c>
@@ -4108,7 +4316,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>652</v>
       </c>
@@ -4164,7 +4372,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>1334</v>
       </c>
@@ -4220,7 +4428,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>1628</v>
       </c>
@@ -4276,7 +4484,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>227</v>
       </c>
@@ -4332,7 +4540,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>2291</v>
       </c>
@@ -4388,7 +4596,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>1048</v>
       </c>
@@ -4444,7 +4652,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>666</v>
       </c>
@@ -4500,119 +4708,119 @@
         <v>768</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A72" s="14">
         <v>504</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="15">
         <v>126</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="16">
         <v>443</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="14">
         <v>1106</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="15">
         <v>143</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="16">
         <v>820</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72" s="14">
         <v>722</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="15">
         <v>142</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="16">
         <v>760</v>
       </c>
-      <c r="J72" s="1">
+      <c r="J72" s="14">
         <v>1910</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K72" s="15">
         <v>316</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="16">
         <v>1911</v>
       </c>
-      <c r="M72" s="1">
+      <c r="M72" s="14">
         <v>586</v>
       </c>
-      <c r="N72" s="2">
+      <c r="N72" s="15">
         <v>20</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="16">
         <v>242</v>
       </c>
-      <c r="P72" s="1">
+      <c r="P72" s="14">
         <v>718</v>
       </c>
-      <c r="Q72" s="2">
+      <c r="Q72" s="15">
         <v>61</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="16">
         <v>842</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A73" s="17">
         <v>946</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="18">
         <v>180</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="19">
         <v>417</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="17">
         <v>1690</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="18">
         <v>14</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="19">
         <v>739</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73" s="17">
         <v>1070</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73" s="18">
         <v>107</v>
       </c>
-      <c r="I73" s="3">
+      <c r="I73" s="19">
         <v>448</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J73" s="17">
         <v>2080</v>
       </c>
-      <c r="K73" s="2">
+      <c r="K73" s="18">
         <v>204</v>
       </c>
-      <c r="L73" s="3">
+      <c r="L73" s="19">
         <v>1360</v>
       </c>
-      <c r="M73" s="1">
+      <c r="M73" s="17">
         <v>622</v>
       </c>
-      <c r="N73" s="2">
+      <c r="N73" s="18">
         <v>161</v>
       </c>
-      <c r="O73" s="3">
+      <c r="O73" s="19">
         <v>490</v>
       </c>
-      <c r="P73" s="1">
+      <c r="P73" s="17">
         <v>1104</v>
       </c>
-      <c r="Q73" s="2">
+      <c r="Q73" s="18">
         <v>21</v>
       </c>
-      <c r="R73" s="3">
+      <c r="R73" s="19">
         <v>1161</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>1071</v>
       </c>
@@ -4668,7 +4876,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>1075</v>
       </c>
@@ -4724,7 +4932,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>881</v>
       </c>
@@ -4780,7 +4988,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>1081</v>
       </c>
@@ -4836,7 +5044,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>937</v>
       </c>
@@ -4892,7 +5100,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>858</v>
       </c>
@@ -4948,7 +5156,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>1483</v>
       </c>
@@ -5004,7 +5212,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>1346</v>
       </c>
@@ -5060,7 +5268,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>1119</v>
       </c>
@@ -5116,7 +5324,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>1690</v>
       </c>
@@ -5172,7 +5380,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>1389</v>
       </c>
@@ -5228,7 +5436,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>1501</v>
       </c>
@@ -5284,119 +5492,119 @@
         <v>805</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A86" s="14">
         <v>1426</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="15">
         <v>41</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="16">
         <v>443</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="14">
         <v>1434</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="15">
         <v>76</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="16">
         <v>871</v>
       </c>
-      <c r="G86" s="1">
+      <c r="G86" s="14">
         <v>867</v>
       </c>
-      <c r="H86" s="2">
+      <c r="H86" s="15">
         <v>158</v>
       </c>
-      <c r="I86" s="3">
+      <c r="I86" s="16">
         <v>554</v>
       </c>
-      <c r="J86" s="1">
+      <c r="J86" s="14">
         <v>1957</v>
       </c>
-      <c r="K86" s="2">
+      <c r="K86" s="15">
         <v>316</v>
       </c>
-      <c r="L86" s="3">
+      <c r="L86" s="16">
         <v>1394</v>
       </c>
-      <c r="M86" s="1">
+      <c r="M86" s="14">
         <v>585</v>
       </c>
-      <c r="N86" s="2">
+      <c r="N86" s="15">
         <v>35</v>
       </c>
-      <c r="O86" s="3">
+      <c r="O86" s="16">
         <v>292</v>
       </c>
-      <c r="P86" s="1">
+      <c r="P86" s="14">
         <v>964</v>
       </c>
-      <c r="Q86" s="2">
+      <c r="Q86" s="15">
         <v>106</v>
       </c>
-      <c r="R86" s="3">
+      <c r="R86" s="16">
         <v>504</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A87" s="17">
         <v>2151</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="18">
         <v>61</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="19">
         <v>3892</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="17">
         <v>1678</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="18">
         <v>146</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="19">
         <v>1290</v>
       </c>
-      <c r="G87" s="1">
+      <c r="G87" s="17">
         <v>749</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H87" s="18">
         <v>262</v>
       </c>
-      <c r="I87" s="3">
+      <c r="I87" s="19">
         <v>470</v>
       </c>
-      <c r="J87" s="1">
+      <c r="J87" s="17">
         <v>2391</v>
       </c>
-      <c r="K87" s="2">
+      <c r="K87" s="18">
         <v>339</v>
       </c>
-      <c r="L87" s="3">
+      <c r="L87" s="19">
         <v>1581</v>
       </c>
-      <c r="M87" s="1">
+      <c r="M87" s="17">
         <v>677</v>
       </c>
-      <c r="N87" s="2">
+      <c r="N87" s="18">
         <v>158</v>
       </c>
-      <c r="O87" s="3">
+      <c r="O87" s="19">
         <v>525</v>
       </c>
-      <c r="P87" s="1">
+      <c r="P87" s="17">
         <v>702</v>
       </c>
-      <c r="Q87" s="2">
+      <c r="Q87" s="18">
         <v>173</v>
       </c>
-      <c r="R87" s="3">
+      <c r="R87" s="19">
         <v>907</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>1811</v>
       </c>
@@ -5452,7 +5660,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>1360</v>
       </c>
@@ -5508,7 +5716,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>1122</v>
       </c>
@@ -5564,7 +5772,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>1137</v>
       </c>
@@ -5620,7 +5828,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>1630</v>
       </c>
@@ -5676,7 +5884,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>1228</v>
       </c>
@@ -5732,7 +5940,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>1622</v>
       </c>
@@ -5788,7 +5996,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>1310</v>
       </c>
@@ -5844,7 +6052,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>1148</v>
       </c>
@@ -5900,7 +6108,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>1469</v>
       </c>
@@ -5956,7 +6164,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>1117</v>
       </c>
@@ -6012,7 +6220,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>1347</v>
       </c>
@@ -6068,119 +6276,119 @@
         <v>581</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A100" s="14">
         <v>1407</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="15">
         <v>26</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="16">
         <v>443</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="14">
         <v>1476</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="15">
         <v>94</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="16">
         <v>663</v>
       </c>
-      <c r="G100" s="1">
+      <c r="G100" s="14">
         <v>1127</v>
       </c>
-      <c r="H100" s="2">
+      <c r="H100" s="15">
         <v>63</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="16">
         <v>410</v>
       </c>
-      <c r="J100" s="1">
+      <c r="J100" s="14">
         <v>1472</v>
       </c>
-      <c r="K100" s="2">
+      <c r="K100" s="15">
         <v>175</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="16">
         <v>1296</v>
       </c>
-      <c r="M100" s="1">
+      <c r="M100" s="14">
         <v>589</v>
       </c>
-      <c r="N100" s="2">
+      <c r="N100" s="15">
         <v>141</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="16">
         <v>332</v>
       </c>
-      <c r="P100" s="1">
+      <c r="P100" s="14">
         <v>1228</v>
       </c>
-      <c r="Q100" s="2">
+      <c r="Q100" s="15">
         <v>49</v>
       </c>
-      <c r="R100" s="3">
+      <c r="R100" s="16">
         <v>709</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A101" s="17">
         <v>2276</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="18">
         <v>53</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="19">
         <v>3627</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="17">
         <v>1214</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="18">
         <v>267</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="19">
         <v>950</v>
       </c>
-      <c r="G101" s="1">
+      <c r="G101" s="17">
         <v>1187</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H101" s="18">
         <v>188</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="19">
         <v>432</v>
       </c>
-      <c r="J101" s="1">
+      <c r="J101" s="17">
         <v>2153</v>
       </c>
-      <c r="K101" s="2">
+      <c r="K101" s="18">
         <v>210</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="19">
         <v>838</v>
       </c>
-      <c r="M101" s="1">
+      <c r="M101" s="17">
         <v>385</v>
       </c>
-      <c r="N101" s="2">
+      <c r="N101" s="18">
         <v>70</v>
       </c>
-      <c r="O101" s="3">
+      <c r="O101" s="19">
         <v>546</v>
       </c>
-      <c r="P101" s="1">
+      <c r="P101" s="17">
         <v>1135</v>
       </c>
-      <c r="Q101" s="2">
+      <c r="Q101" s="18">
         <v>173</v>
       </c>
-      <c r="R101" s="3">
+      <c r="R101" s="19">
         <v>853</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1627</v>
       </c>
@@ -6236,7 +6444,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>1273</v>
       </c>
@@ -6292,7 +6500,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>1418</v>
       </c>
@@ -6348,7 +6556,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>1504</v>
       </c>
@@ -6404,7 +6612,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>1517</v>
       </c>
@@ -6460,7 +6668,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>1180</v>
       </c>
@@ -6516,7 +6724,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>1596</v>
       </c>
@@ -6572,7 +6780,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>1154</v>
       </c>
@@ -6628,7 +6836,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>1615</v>
       </c>
@@ -6684,7 +6892,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>1336</v>
       </c>
@@ -6740,7 +6948,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>1359</v>
       </c>
@@ -6796,7 +7004,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>1691</v>
       </c>
@@ -6852,119 +7060,119 @@
         <v>497</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A114" s="14">
         <v>1106</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="15">
         <v>76</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="16">
         <v>550</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114" s="14">
         <v>1612</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E114" s="15">
         <v>217</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114" s="16">
         <v>678</v>
       </c>
-      <c r="G114" s="1">
+      <c r="G114" s="14">
         <v>1177</v>
       </c>
-      <c r="H114" s="2">
+      <c r="H114" s="15">
         <v>256</v>
       </c>
-      <c r="I114" s="3">
+      <c r="I114" s="16">
         <v>775</v>
       </c>
-      <c r="J114" s="1">
+      <c r="J114" s="14">
         <v>1949</v>
       </c>
-      <c r="K114" s="2">
+      <c r="K114" s="15">
         <v>293</v>
       </c>
-      <c r="L114" s="3">
+      <c r="L114" s="16">
         <v>1093</v>
       </c>
-      <c r="M114" s="1">
+      <c r="M114" s="14">
         <v>650</v>
       </c>
-      <c r="N114" s="2">
+      <c r="N114" s="15">
         <v>65</v>
       </c>
-      <c r="O114" s="3">
+      <c r="O114" s="16">
         <v>284</v>
       </c>
-      <c r="P114" s="1">
+      <c r="P114" s="14">
         <v>1074</v>
       </c>
-      <c r="Q114" s="2">
+      <c r="Q114" s="15">
         <v>199</v>
       </c>
-      <c r="R114" s="3">
+      <c r="R114" s="16">
         <v>738</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A115" s="1">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A115" s="17">
         <v>1263</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="18">
         <v>0</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="19">
         <v>700</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="17">
         <v>1569</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115" s="18">
         <v>120</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115" s="19">
         <v>761</v>
       </c>
-      <c r="G115" s="1">
+      <c r="G115" s="17">
         <v>1056</v>
       </c>
-      <c r="H115" s="2">
+      <c r="H115" s="18">
         <v>195</v>
       </c>
-      <c r="I115" s="3">
+      <c r="I115" s="19">
         <v>866</v>
       </c>
-      <c r="J115" s="1">
+      <c r="J115" s="17">
         <v>2055</v>
       </c>
-      <c r="K115" s="2">
+      <c r="K115" s="18">
         <v>451</v>
       </c>
-      <c r="L115" s="3">
+      <c r="L115" s="19">
         <v>1394</v>
       </c>
-      <c r="M115" s="1">
+      <c r="M115" s="17">
         <v>839</v>
       </c>
-      <c r="N115" s="2">
+      <c r="N115" s="18">
         <v>174</v>
       </c>
-      <c r="O115" s="3">
+      <c r="O115" s="19">
         <v>600</v>
       </c>
-      <c r="P115" s="1">
+      <c r="P115" s="17">
         <v>1432</v>
       </c>
-      <c r="Q115" s="2">
+      <c r="Q115" s="18">
         <v>99</v>
       </c>
-      <c r="R115" s="3">
+      <c r="R115" s="19">
         <v>837</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>1680</v>
       </c>
@@ -7020,7 +7228,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>1468</v>
       </c>
@@ -7076,7 +7284,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>1133</v>
       </c>
@@ -7132,7 +7340,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>2052</v>
       </c>
@@ -7188,7 +7396,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>1438</v>
       </c>
@@ -7244,7 +7452,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>1495</v>
       </c>
@@ -7300,7 +7508,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>1234</v>
       </c>
@@ -7356,7 +7564,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>1425</v>
       </c>
@@ -7412,7 +7620,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>1382</v>
       </c>
@@ -7468,7 +7676,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>1390</v>
       </c>
@@ -7524,7 +7732,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>1375</v>
       </c>
@@ -7580,7 +7788,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>1266</v>
       </c>
@@ -7636,119 +7844,119 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A128" s="1">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A128" s="14">
         <v>1528</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="15">
         <v>116</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="16">
         <v>828</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128" s="14">
         <v>1321</v>
       </c>
-      <c r="E128" s="2">
+      <c r="E128" s="15">
         <v>148</v>
       </c>
-      <c r="F128" s="3">
+      <c r="F128" s="16">
         <v>758</v>
       </c>
-      <c r="G128" s="1">
+      <c r="G128" s="14">
         <v>1177</v>
       </c>
-      <c r="H128" s="2">
+      <c r="H128" s="15">
         <v>178</v>
       </c>
-      <c r="I128" s="3">
+      <c r="I128" s="16">
         <v>441</v>
       </c>
-      <c r="J128" s="1">
+      <c r="J128" s="14">
         <v>1965</v>
       </c>
-      <c r="K128" s="2">
+      <c r="K128" s="15">
         <v>365</v>
       </c>
-      <c r="L128" s="3">
+      <c r="L128" s="16">
         <v>966</v>
       </c>
-      <c r="M128" s="1">
+      <c r="M128" s="14">
         <v>663</v>
       </c>
-      <c r="N128" s="2">
+      <c r="N128" s="15">
         <v>112</v>
       </c>
-      <c r="O128" s="3">
+      <c r="O128" s="16">
         <v>425</v>
       </c>
-      <c r="P128" s="1">
+      <c r="P128" s="14">
         <v>1704</v>
       </c>
-      <c r="Q128" s="2">
+      <c r="Q128" s="15">
         <v>270</v>
       </c>
-      <c r="R128" s="3">
+      <c r="R128" s="16">
         <v>1166</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A129" s="1">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A129" s="17">
         <v>1471</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="18">
         <v>91</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="19">
         <v>579</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129" s="17">
         <v>1743</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E129" s="18">
         <v>37</v>
       </c>
-      <c r="F129" s="3">
+      <c r="F129" s="19">
         <v>934</v>
       </c>
-      <c r="G129" s="1">
+      <c r="G129" s="17">
         <v>1592</v>
       </c>
-      <c r="H129" s="2">
+      <c r="H129" s="18">
         <v>13</v>
       </c>
-      <c r="I129" s="3">
+      <c r="I129" s="19">
         <v>679</v>
       </c>
-      <c r="J129" s="1">
+      <c r="J129" s="17">
         <v>1825</v>
       </c>
-      <c r="K129" s="2">
+      <c r="K129" s="18">
         <v>215</v>
       </c>
-      <c r="L129" s="3">
+      <c r="L129" s="19">
         <v>1214</v>
       </c>
-      <c r="M129" s="1">
+      <c r="M129" s="17">
         <v>628</v>
       </c>
-      <c r="N129" s="2">
+      <c r="N129" s="18">
         <v>187</v>
       </c>
-      <c r="O129" s="3">
+      <c r="O129" s="19">
         <v>497</v>
       </c>
-      <c r="P129" s="1">
+      <c r="P129" s="17">
         <v>1462</v>
       </c>
-      <c r="Q129" s="2">
+      <c r="Q129" s="18">
         <v>98</v>
       </c>
-      <c r="R129" s="3">
+      <c r="R129" s="19">
         <v>635</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>1814</v>
       </c>
@@ -7804,7 +8012,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>1914</v>
       </c>
@@ -7860,7 +8068,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>1446</v>
       </c>
@@ -7916,7 +8124,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>936</v>
       </c>
@@ -7972,7 +8180,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>1328</v>
       </c>
@@ -8028,7 +8236,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>1226</v>
       </c>
@@ -8084,7 +8292,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>1189</v>
       </c>
@@ -8140,7 +8348,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>1845</v>
       </c>
@@ -8196,7 +8404,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>1844</v>
       </c>
@@ -8252,7 +8460,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>1181</v>
       </c>
@@ -8308,7 +8516,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>964</v>
       </c>
@@ -8364,7 +8572,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>1410</v>
       </c>
@@ -8420,119 +8628,119 @@
         <v>541</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A142" s="1">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A142" s="14">
         <v>1382</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="15">
         <v>188</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="16">
         <v>815</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142" s="14">
         <v>1200</v>
       </c>
-      <c r="E142" s="2">
+      <c r="E142" s="15">
         <v>114</v>
       </c>
-      <c r="F142" s="3">
+      <c r="F142" s="16">
         <v>1112</v>
       </c>
-      <c r="G142" s="1">
+      <c r="G142" s="14">
         <v>1191</v>
       </c>
-      <c r="H142" s="2">
+      <c r="H142" s="15">
         <v>33</v>
       </c>
-      <c r="I142" s="3">
+      <c r="I142" s="16">
         <v>574</v>
       </c>
-      <c r="J142" s="1">
+      <c r="J142" s="14">
         <v>1251</v>
       </c>
-      <c r="K142" s="2">
+      <c r="K142" s="15">
         <v>135</v>
       </c>
-      <c r="L142" s="3">
+      <c r="L142" s="16">
         <v>1137</v>
       </c>
-      <c r="M142" s="1">
+      <c r="M142" s="14">
         <v>567</v>
       </c>
-      <c r="N142" s="2">
+      <c r="N142" s="15">
         <v>112</v>
       </c>
-      <c r="O142" s="3">
+      <c r="O142" s="16">
         <v>351</v>
       </c>
-      <c r="P142" s="1">
+      <c r="P142" s="14">
         <v>1345</v>
       </c>
-      <c r="Q142" s="2">
+      <c r="Q142" s="15">
         <v>166</v>
       </c>
-      <c r="R142" s="3">
+      <c r="R142" s="16">
         <v>568</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A143" s="1">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A143" s="17">
         <v>2127</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="18">
         <v>239</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="19">
         <v>366</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143" s="17">
         <v>1674</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143" s="18">
         <v>197</v>
       </c>
-      <c r="F143" s="3">
+      <c r="F143" s="19">
         <v>962</v>
       </c>
-      <c r="G143" s="1">
+      <c r="G143" s="17">
         <v>1280</v>
       </c>
-      <c r="H143" s="2">
+      <c r="H143" s="18">
         <v>170</v>
       </c>
-      <c r="I143" s="3">
+      <c r="I143" s="19">
         <v>720</v>
       </c>
-      <c r="J143" s="1">
+      <c r="J143" s="17">
         <v>1916</v>
       </c>
-      <c r="K143" s="2">
+      <c r="K143" s="18">
         <v>434</v>
       </c>
-      <c r="L143" s="3">
+      <c r="L143" s="19">
         <v>1361</v>
       </c>
-      <c r="M143" s="1">
+      <c r="M143" s="17">
         <v>922</v>
       </c>
-      <c r="N143" s="2">
+      <c r="N143" s="18">
         <v>153</v>
       </c>
-      <c r="O143" s="3">
+      <c r="O143" s="19">
         <v>473</v>
       </c>
-      <c r="P143" s="1">
+      <c r="P143" s="17">
         <v>921</v>
       </c>
-      <c r="Q143" s="2">
+      <c r="Q143" s="18">
         <v>162</v>
       </c>
-      <c r="R143" s="3">
+      <c r="R143" s="19">
         <v>859</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>1535</v>
       </c>
@@ -8588,7 +8796,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>1116</v>
       </c>
@@ -8644,7 +8852,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>1486</v>
       </c>
@@ -8700,7 +8908,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>850</v>
       </c>
@@ -8756,7 +8964,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>1699</v>
       </c>
@@ -8812,7 +9020,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>1230</v>
       </c>
@@ -8868,7 +9076,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>1623</v>
       </c>
@@ -8924,7 +9132,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>1492</v>
       </c>
@@ -8980,7 +9188,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>1444</v>
       </c>
@@ -9036,7 +9244,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>1258</v>
       </c>
@@ -9092,7 +9300,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>862</v>
       </c>
@@ -9148,7 +9356,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>1245</v>
       </c>
@@ -9204,119 +9412,119 @@
         <v>472</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A156" s="1">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A156" s="14">
         <v>1262</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="15">
         <v>127</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="16">
         <v>282</v>
       </c>
-      <c r="D156" s="1">
+      <c r="D156" s="14">
         <v>1515</v>
       </c>
-      <c r="E156" s="2">
+      <c r="E156" s="15">
         <v>92</v>
       </c>
-      <c r="F156" s="3">
+      <c r="F156" s="16">
         <v>523</v>
       </c>
-      <c r="G156" s="1">
+      <c r="G156" s="14">
         <v>1333</v>
       </c>
-      <c r="H156" s="2">
+      <c r="H156" s="15">
         <v>195</v>
       </c>
-      <c r="I156" s="3">
+      <c r="I156" s="16">
         <v>592</v>
       </c>
-      <c r="J156" s="1">
+      <c r="J156" s="14">
         <v>2300</v>
       </c>
-      <c r="K156" s="2">
+      <c r="K156" s="15">
         <v>309</v>
       </c>
-      <c r="L156" s="3">
+      <c r="L156" s="16">
         <v>847</v>
       </c>
-      <c r="M156" s="1">
+      <c r="M156" s="14">
         <v>607</v>
       </c>
-      <c r="N156" s="2">
+      <c r="N156" s="15">
         <v>154</v>
       </c>
-      <c r="O156" s="3">
+      <c r="O156" s="16">
         <v>263</v>
       </c>
-      <c r="P156" s="1">
+      <c r="P156" s="14">
         <v>787</v>
       </c>
-      <c r="Q156" s="2">
+      <c r="Q156" s="15">
         <v>73</v>
       </c>
-      <c r="R156" s="3">
+      <c r="R156" s="16">
         <v>462</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A157" s="1">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A157" s="17">
         <v>1706</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="18">
         <v>126</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="19">
         <v>944</v>
       </c>
-      <c r="D157" s="1">
+      <c r="D157" s="17">
         <v>1122</v>
       </c>
-      <c r="E157" s="2">
+      <c r="E157" s="18">
         <v>146</v>
       </c>
-      <c r="F157" s="3">
+      <c r="F157" s="19">
         <v>1343</v>
       </c>
-      <c r="G157" s="1">
+      <c r="G157" s="17">
         <v>1121</v>
       </c>
-      <c r="H157" s="2">
+      <c r="H157" s="18">
         <v>123</v>
       </c>
-      <c r="I157" s="3">
+      <c r="I157" s="19">
         <v>590</v>
       </c>
-      <c r="J157" s="1">
+      <c r="J157" s="17">
         <v>2343</v>
       </c>
-      <c r="K157" s="2">
+      <c r="K157" s="18">
         <v>342</v>
       </c>
-      <c r="L157" s="3">
+      <c r="L157" s="19">
         <v>589</v>
       </c>
-      <c r="M157" s="1">
+      <c r="M157" s="17">
         <v>697</v>
       </c>
-      <c r="N157" s="2">
+      <c r="N157" s="18">
         <v>152</v>
       </c>
-      <c r="O157" s="3">
+      <c r="O157" s="19">
         <v>388</v>
       </c>
-      <c r="P157" s="1">
+      <c r="P157" s="17">
         <v>523</v>
       </c>
-      <c r="Q157" s="2">
+      <c r="Q157" s="18">
         <v>132</v>
       </c>
-      <c r="R157" s="3">
+      <c r="R157" s="19">
         <v>746</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>1180</v>
       </c>
@@ -9372,7 +9580,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>1572</v>
       </c>
@@ -9428,7 +9636,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>1513</v>
       </c>
@@ -9484,7 +9692,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>1081</v>
       </c>
@@ -9540,7 +9748,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>1860</v>
       </c>
@@ -9596,7 +9804,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>1246</v>
       </c>
@@ -9652,7 +9860,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>1043</v>
       </c>
@@ -9708,7 +9916,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>1866</v>
       </c>
@@ -9764,7 +9972,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>1323</v>
       </c>
@@ -9820,7 +10028,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>1250</v>
       </c>
@@ -9876,7 +10084,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>1209</v>
       </c>
@@ -9932,7 +10140,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>1266</v>
       </c>
@@ -9988,119 +10196,119 @@
         <v>373</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A170" s="1">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A170" s="14">
         <v>1068</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="15">
         <v>67</v>
       </c>
-      <c r="C170" s="3">
+      <c r="C170" s="16">
         <v>261</v>
       </c>
-      <c r="D170" s="1">
+      <c r="D170" s="14">
         <v>1072</v>
       </c>
-      <c r="E170" s="2">
+      <c r="E170" s="15">
         <v>37</v>
       </c>
-      <c r="F170" s="3">
+      <c r="F170" s="16">
         <v>953</v>
       </c>
-      <c r="G170" s="1">
+      <c r="G170" s="14">
         <v>869</v>
       </c>
-      <c r="H170" s="2">
+      <c r="H170" s="15">
         <v>68</v>
       </c>
-      <c r="I170" s="3">
+      <c r="I170" s="16">
         <v>432</v>
       </c>
-      <c r="J170" s="1">
+      <c r="J170" s="14">
         <v>2503</v>
       </c>
-      <c r="K170" s="2">
+      <c r="K170" s="15">
         <v>469</v>
       </c>
-      <c r="L170" s="3">
+      <c r="L170" s="16">
         <v>1491</v>
       </c>
-      <c r="M170" s="1">
+      <c r="M170" s="14">
         <v>600</v>
       </c>
-      <c r="N170" s="2">
+      <c r="N170" s="15">
         <v>112</v>
       </c>
-      <c r="O170" s="3">
+      <c r="O170" s="16">
         <v>298</v>
       </c>
-      <c r="P170" s="1">
+      <c r="P170" s="14">
         <v>1258</v>
       </c>
-      <c r="Q170" s="2">
+      <c r="Q170" s="15">
         <v>132</v>
       </c>
-      <c r="R170" s="3">
+      <c r="R170" s="16">
         <v>1075</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A171" s="1">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A171" s="17">
         <v>1596</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171" s="18">
         <v>175</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171" s="19">
         <v>490</v>
       </c>
-      <c r="D171" s="1">
+      <c r="D171" s="17">
         <v>1735</v>
       </c>
-      <c r="E171" s="2">
+      <c r="E171" s="18">
         <v>25</v>
       </c>
-      <c r="F171" s="3">
+      <c r="F171" s="19">
         <v>1125</v>
       </c>
-      <c r="G171" s="1">
+      <c r="G171" s="17">
         <v>1604</v>
       </c>
-      <c r="H171" s="2">
+      <c r="H171" s="18">
         <v>17</v>
       </c>
-      <c r="I171" s="3">
+      <c r="I171" s="19">
         <v>763</v>
       </c>
-      <c r="J171" s="1">
+      <c r="J171" s="17">
         <v>1892</v>
       </c>
-      <c r="K171" s="2">
+      <c r="K171" s="18">
         <v>537</v>
       </c>
-      <c r="L171" s="3">
+      <c r="L171" s="19">
         <v>1076</v>
       </c>
-      <c r="M171" s="1">
+      <c r="M171" s="17">
         <v>600</v>
       </c>
-      <c r="N171" s="2">
+      <c r="N171" s="18">
         <v>68</v>
       </c>
-      <c r="O171" s="3">
+      <c r="O171" s="19">
         <v>298</v>
       </c>
-      <c r="P171" s="1">
+      <c r="P171" s="17">
         <v>1223</v>
       </c>
-      <c r="Q171" s="2">
+      <c r="Q171" s="18">
         <v>149</v>
       </c>
-      <c r="R171" s="3">
+      <c r="R171" s="19">
         <v>997</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>1233</v>
       </c>
@@ -10156,7 +10364,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>1200</v>
       </c>
@@ -10212,7 +10420,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>1039</v>
       </c>
@@ -10268,7 +10476,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>1520</v>
       </c>
@@ -10324,7 +10532,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>1446</v>
       </c>
@@ -10380,7 +10588,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>1196</v>
       </c>
@@ -10436,7 +10644,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>1483</v>
       </c>
@@ -10492,7 +10700,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>1268</v>
       </c>
@@ -10548,7 +10756,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>1141</v>
       </c>
@@ -10604,7 +10812,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>1030</v>
       </c>
@@ -10660,7 +10868,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>1536</v>
       </c>
@@ -10716,7 +10924,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>973</v>
       </c>
@@ -10772,119 +10980,119 @@
         <v>828</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A184" s="1">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A184" s="14">
         <v>1472</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="15">
         <v>179</v>
       </c>
-      <c r="C184" s="3">
+      <c r="C184" s="16">
         <v>604</v>
       </c>
-      <c r="D184" s="1">
+      <c r="D184" s="14">
         <v>1922</v>
       </c>
-      <c r="E184" s="2">
+      <c r="E184" s="15">
         <v>57</v>
       </c>
-      <c r="F184" s="3">
+      <c r="F184" s="16">
         <v>1156</v>
       </c>
-      <c r="G184" s="1">
+      <c r="G184" s="14">
         <v>1655</v>
       </c>
-      <c r="H184" s="2">
+      <c r="H184" s="15">
         <v>134</v>
       </c>
-      <c r="I184" s="3">
+      <c r="I184" s="16">
         <v>858</v>
       </c>
-      <c r="J184" s="1">
+      <c r="J184" s="14">
         <v>2324</v>
       </c>
-      <c r="K184" s="2">
+      <c r="K184" s="15">
         <v>257</v>
       </c>
-      <c r="L184" s="3">
+      <c r="L184" s="16">
         <v>1280</v>
       </c>
-      <c r="M184" s="1">
+      <c r="M184" s="14">
         <v>771</v>
       </c>
-      <c r="N184" s="2">
+      <c r="N184" s="15">
         <v>180</v>
       </c>
-      <c r="O184" s="3">
+      <c r="O184" s="16">
         <v>672</v>
       </c>
-      <c r="P184" s="1">
+      <c r="P184" s="14">
         <v>898</v>
       </c>
-      <c r="Q184" s="2">
+      <c r="Q184" s="15">
         <v>204</v>
       </c>
-      <c r="R184" s="3">
+      <c r="R184" s="16">
         <v>652</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A185" s="1">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A185" s="17">
         <v>1603</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185" s="18">
         <v>25</v>
       </c>
-      <c r="C185" s="3">
+      <c r="C185" s="19">
         <v>530</v>
       </c>
-      <c r="D185" s="1">
+      <c r="D185" s="17">
         <v>1907</v>
       </c>
-      <c r="E185" s="2">
+      <c r="E185" s="18">
         <v>236</v>
       </c>
-      <c r="F185" s="3">
+      <c r="F185" s="19">
         <v>980</v>
       </c>
-      <c r="G185" s="1">
+      <c r="G185" s="17">
         <v>977</v>
       </c>
-      <c r="H185" s="2">
+      <c r="H185" s="18">
         <v>186</v>
       </c>
-      <c r="I185" s="3">
+      <c r="I185" s="19">
         <v>661</v>
       </c>
-      <c r="J185" s="1">
+      <c r="J185" s="17">
         <v>2399</v>
       </c>
-      <c r="K185" s="2">
+      <c r="K185" s="18">
         <v>606</v>
       </c>
-      <c r="L185" s="3">
+      <c r="L185" s="19">
         <v>1511</v>
       </c>
-      <c r="M185" s="1">
+      <c r="M185" s="17">
         <v>514</v>
       </c>
-      <c r="N185" s="2">
+      <c r="N185" s="18">
         <v>203</v>
       </c>
-      <c r="O185" s="3">
+      <c r="O185" s="19">
         <v>192</v>
       </c>
-      <c r="P185" s="1">
+      <c r="P185" s="17">
         <v>957</v>
       </c>
-      <c r="Q185" s="2">
+      <c r="Q185" s="18">
         <v>0</v>
       </c>
-      <c r="R185" s="3">
+      <c r="R185" s="19">
         <v>1059</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>1130</v>
       </c>
@@ -10940,7 +11148,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>1128</v>
       </c>
@@ -10996,7 +11204,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>1061</v>
       </c>
@@ -11052,7 +11260,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>1417</v>
       </c>
@@ -11108,7 +11316,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>1623</v>
       </c>
@@ -11164,7 +11372,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>1085</v>
       </c>
@@ -11220,7 +11428,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>1260</v>
       </c>
@@ -11276,7 +11484,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>1580</v>
       </c>
@@ -11332,7 +11540,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>794</v>
       </c>
@@ -11388,7 +11596,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>1120</v>
       </c>
@@ -11444,7 +11652,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>1378</v>
       </c>
@@ -11500,7 +11708,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>915</v>
       </c>
@@ -11556,119 +11764,119 @@
         <v>603</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A198" s="1">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A198" s="14">
         <v>1298</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198" s="15">
         <v>221</v>
       </c>
-      <c r="C198" s="3">
+      <c r="C198" s="16">
         <v>187</v>
       </c>
-      <c r="D198" s="1">
+      <c r="D198" s="14">
         <v>1440</v>
       </c>
-      <c r="E198" s="2">
+      <c r="E198" s="15">
         <v>152</v>
       </c>
-      <c r="F198" s="3">
+      <c r="F198" s="16">
         <v>973</v>
       </c>
-      <c r="G198" s="1">
+      <c r="G198" s="14">
         <v>1234</v>
       </c>
-      <c r="H198" s="2">
+      <c r="H198" s="15">
         <v>176</v>
       </c>
-      <c r="I198" s="3">
+      <c r="I198" s="16">
         <v>177</v>
       </c>
-      <c r="J198" s="1">
+      <c r="J198" s="14">
         <v>2228</v>
       </c>
-      <c r="K198" s="2">
+      <c r="K198" s="15">
         <v>307</v>
       </c>
-      <c r="L198" s="3">
+      <c r="L198" s="16">
         <v>1519</v>
       </c>
-      <c r="M198" s="1">
+      <c r="M198" s="14">
         <v>466</v>
       </c>
-      <c r="N198" s="2">
+      <c r="N198" s="15">
         <v>97</v>
       </c>
-      <c r="O198" s="3">
+      <c r="O198" s="16">
         <v>62</v>
       </c>
-      <c r="P198" s="1">
+      <c r="P198" s="14">
         <v>319</v>
       </c>
-      <c r="Q198" s="2">
+      <c r="Q198" s="15">
         <v>93</v>
       </c>
-      <c r="R198" s="3">
+      <c r="R198" s="16">
         <v>470</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A199" s="1">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A199" s="17">
         <v>1711</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199" s="18">
         <v>195</v>
       </c>
-      <c r="C199" s="3">
+      <c r="C199" s="19">
         <v>590</v>
       </c>
-      <c r="D199" s="1">
+      <c r="D199" s="17">
         <v>1905</v>
       </c>
-      <c r="E199" s="2">
+      <c r="E199" s="18">
         <v>203</v>
       </c>
-      <c r="F199" s="3">
+      <c r="F199" s="19">
         <v>1032</v>
       </c>
-      <c r="G199" s="1">
+      <c r="G199" s="17">
         <v>1183</v>
       </c>
-      <c r="H199" s="2">
+      <c r="H199" s="18">
         <v>140</v>
       </c>
-      <c r="I199" s="3">
+      <c r="I199" s="19">
         <v>866</v>
       </c>
-      <c r="J199" s="1">
+      <c r="J199" s="17">
         <v>2333</v>
       </c>
-      <c r="K199" s="2">
+      <c r="K199" s="18">
         <v>205</v>
       </c>
-      <c r="L199" s="3">
+      <c r="L199" s="19">
         <v>1558</v>
       </c>
-      <c r="M199" s="1">
+      <c r="M199" s="17">
         <v>527</v>
       </c>
-      <c r="N199" s="2">
+      <c r="N199" s="18">
         <v>74</v>
       </c>
-      <c r="O199" s="3">
+      <c r="O199" s="19">
         <v>403</v>
       </c>
-      <c r="P199" s="1">
+      <c r="P199" s="17">
         <v>1372</v>
       </c>
-      <c r="Q199" s="2">
+      <c r="Q199" s="18">
         <v>170</v>
       </c>
-      <c r="R199" s="3">
+      <c r="R199" s="19">
         <v>1181</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>1398</v>
       </c>
@@ -11724,7 +11932,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>976</v>
       </c>
@@ -11780,7 +11988,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>1447</v>
       </c>
@@ -11836,7 +12044,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>1170</v>
       </c>
@@ -11892,7 +12100,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>1047</v>
       </c>
@@ -11948,7 +12156,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>1286</v>
       </c>
@@ -12004,7 +12212,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>1515</v>
       </c>
@@ -12060,7 +12268,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>1101</v>
       </c>
@@ -12116,7 +12324,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>1107</v>
       </c>
@@ -12172,7 +12380,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>1332</v>
       </c>
@@ -12228,7 +12436,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>868</v>
       </c>
@@ -12284,7 +12492,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>1204</v>
       </c>
@@ -12340,119 +12548,119 @@
         <v>271</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A212" s="1">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A212" s="14">
         <v>1126</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212" s="15">
         <v>431</v>
       </c>
-      <c r="C212" s="3">
+      <c r="C212" s="16">
         <v>272</v>
       </c>
-      <c r="D212" s="1">
+      <c r="D212" s="14">
         <v>1372</v>
       </c>
-      <c r="E212" s="2">
+      <c r="E212" s="15">
         <v>289</v>
       </c>
-      <c r="F212" s="3">
+      <c r="F212" s="16">
         <v>969</v>
       </c>
-      <c r="G212" s="1">
+      <c r="G212" s="14">
         <v>1216</v>
       </c>
-      <c r="H212" s="2">
+      <c r="H212" s="15">
         <v>174</v>
       </c>
-      <c r="I212" s="3">
+      <c r="I212" s="16">
         <v>283</v>
       </c>
-      <c r="J212" s="1">
+      <c r="J212" s="14">
         <v>1863</v>
       </c>
-      <c r="K212" s="2">
+      <c r="K212" s="15">
         <v>234</v>
       </c>
-      <c r="L212" s="3">
+      <c r="L212" s="16">
         <v>1223</v>
       </c>
-      <c r="M212" s="1">
+      <c r="M212" s="14">
         <v>594</v>
       </c>
-      <c r="N212" s="2">
+      <c r="N212" s="15">
         <v>49</v>
       </c>
-      <c r="O212" s="3">
+      <c r="O212" s="16">
         <v>251</v>
       </c>
-      <c r="P212" s="1">
+      <c r="P212" s="14">
         <v>686</v>
       </c>
-      <c r="Q212" s="2">
+      <c r="Q212" s="15">
         <v>213</v>
       </c>
-      <c r="R212" s="3">
+      <c r="R212" s="16">
         <v>696</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A213" s="1">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A213" s="17">
         <v>1519</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213" s="18">
         <v>186</v>
       </c>
-      <c r="C213" s="3">
+      <c r="C213" s="19">
         <v>605</v>
       </c>
-      <c r="D213" s="1">
+      <c r="D213" s="17">
         <v>1729</v>
       </c>
-      <c r="E213" s="2">
+      <c r="E213" s="18">
         <v>105</v>
       </c>
-      <c r="F213" s="3">
+      <c r="F213" s="19">
         <v>1144</v>
       </c>
-      <c r="G213" s="1">
+      <c r="G213" s="17">
         <v>1095</v>
       </c>
-      <c r="H213" s="2">
+      <c r="H213" s="18">
         <v>34</v>
       </c>
-      <c r="I213" s="3">
+      <c r="I213" s="19">
         <v>594</v>
       </c>
-      <c r="J213" s="1">
+      <c r="J213" s="17">
         <v>2038</v>
       </c>
-      <c r="K213" s="2">
+      <c r="K213" s="18">
         <v>410</v>
       </c>
-      <c r="L213" s="3">
+      <c r="L213" s="19">
         <v>780</v>
       </c>
-      <c r="M213" s="1">
+      <c r="M213" s="17">
         <v>537</v>
       </c>
-      <c r="N213" s="2">
+      <c r="N213" s="18">
         <v>145</v>
       </c>
-      <c r="O213" s="3">
+      <c r="O213" s="19">
         <v>308</v>
       </c>
-      <c r="P213" s="1">
+      <c r="P213" s="17">
         <v>1091</v>
       </c>
-      <c r="Q213" s="2">
+      <c r="Q213" s="18">
         <v>96</v>
       </c>
-      <c r="R213" s="3">
+      <c r="R213" s="19">
         <v>719</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>886</v>
       </c>
@@ -12508,7 +12716,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>1133</v>
       </c>
@@ -12564,7 +12772,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>1201</v>
       </c>
@@ -12620,7 +12828,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>884</v>
       </c>
@@ -12676,7 +12884,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>788</v>
       </c>
@@ -12732,7 +12940,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>712</v>
       </c>
@@ -12788,7 +12996,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>774</v>
       </c>
@@ -12844,7 +13052,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>960</v>
       </c>
@@ -12900,7 +13108,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>960</v>
       </c>
@@ -12956,7 +13164,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>666</v>
       </c>
@@ -13012,7 +13220,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>924</v>
       </c>
@@ -13068,7 +13276,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>606</v>
       </c>
@@ -13124,119 +13332,119 @@
         <v>258</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A226" s="1">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A226" s="14">
         <v>832</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B226" s="15">
         <v>0</v>
       </c>
-      <c r="C226" s="3">
+      <c r="C226" s="16">
         <v>407</v>
       </c>
-      <c r="D226" s="1">
+      <c r="D226" s="14">
         <v>1283</v>
       </c>
-      <c r="E226" s="2">
+      <c r="E226" s="15">
         <v>201</v>
       </c>
-      <c r="F226" s="3">
+      <c r="F226" s="16">
         <v>877</v>
       </c>
-      <c r="G226" s="1">
+      <c r="G226" s="14">
         <v>1856</v>
       </c>
-      <c r="H226" s="2">
+      <c r="H226" s="15">
         <v>127</v>
       </c>
-      <c r="I226" s="3">
+      <c r="I226" s="16">
         <v>186</v>
       </c>
-      <c r="J226" s="1">
+      <c r="J226" s="14">
         <v>1375</v>
       </c>
-      <c r="K226" s="2">
+      <c r="K226" s="15">
         <v>329</v>
       </c>
-      <c r="L226" s="3">
+      <c r="L226" s="16">
         <v>1227</v>
       </c>
-      <c r="M226" s="1">
+      <c r="M226" s="14">
         <v>620</v>
       </c>
-      <c r="N226" s="2">
+      <c r="N226" s="15">
         <v>110</v>
       </c>
-      <c r="O226" s="3">
+      <c r="O226" s="16">
         <v>381</v>
       </c>
-      <c r="P226" s="1">
+      <c r="P226" s="14">
         <v>698</v>
       </c>
-      <c r="Q226" s="2">
+      <c r="Q226" s="15">
         <v>222</v>
       </c>
-      <c r="R226" s="3">
+      <c r="R226" s="16">
         <v>531</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A227" s="1">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A227" s="17">
         <v>966</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B227" s="18">
         <v>0</v>
       </c>
-      <c r="C227" s="3">
+      <c r="C227" s="19">
         <v>244</v>
       </c>
-      <c r="D227" s="1">
+      <c r="D227" s="17">
         <v>1505</v>
       </c>
-      <c r="E227" s="2">
+      <c r="E227" s="18">
         <v>57</v>
       </c>
-      <c r="F227" s="3">
+      <c r="F227" s="19">
         <v>825</v>
       </c>
-      <c r="G227" s="1">
+      <c r="G227" s="17">
         <v>1344</v>
       </c>
-      <c r="H227" s="2">
+      <c r="H227" s="18">
         <v>129</v>
       </c>
-      <c r="I227" s="3">
+      <c r="I227" s="19">
         <v>479</v>
       </c>
-      <c r="J227" s="1">
+      <c r="J227" s="17">
         <v>2273</v>
       </c>
-      <c r="K227" s="2">
+      <c r="K227" s="18">
         <v>305</v>
       </c>
-      <c r="L227" s="3">
+      <c r="L227" s="19">
         <v>1199</v>
       </c>
-      <c r="M227" s="1">
+      <c r="M227" s="17">
         <v>457</v>
       </c>
-      <c r="N227" s="2">
+      <c r="N227" s="18">
         <v>44</v>
       </c>
-      <c r="O227" s="3">
+      <c r="O227" s="19">
         <v>254</v>
       </c>
-      <c r="P227" s="1">
+      <c r="P227" s="17">
         <v>1006</v>
       </c>
-      <c r="Q227" s="2">
+      <c r="Q227" s="18">
         <v>142</v>
       </c>
-      <c r="R227" s="3">
+      <c r="R227" s="19">
         <v>747</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>921</v>
       </c>
@@ -13292,7 +13500,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>696</v>
       </c>
@@ -13348,7 +13556,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>547</v>
       </c>
@@ -13404,7 +13612,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>485</v>
       </c>
@@ -13460,7 +13668,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>714</v>
       </c>
@@ -13516,7 +13724,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>1066</v>
       </c>
@@ -13572,7 +13780,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>908</v>
       </c>
@@ -13628,7 +13836,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>777</v>
       </c>
@@ -13684,7 +13892,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>511</v>
       </c>
@@ -13740,7 +13948,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>506</v>
       </c>
@@ -13796,7 +14004,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>676</v>
       </c>
@@ -13852,7 +14060,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>779</v>
       </c>
@@ -13908,119 +14116,119 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A240" s="1">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A240" s="14">
         <v>690</v>
       </c>
-      <c r="B240" s="2">
+      <c r="B240" s="15">
         <v>89</v>
       </c>
-      <c r="C240" s="3">
+      <c r="C240" s="16">
         <v>249</v>
       </c>
-      <c r="D240" s="1">
+      <c r="D240" s="14">
         <v>1590</v>
       </c>
-      <c r="E240" s="2">
+      <c r="E240" s="15">
         <v>58</v>
       </c>
-      <c r="F240" s="3">
+      <c r="F240" s="16">
         <v>1139</v>
       </c>
-      <c r="G240" s="1">
+      <c r="G240" s="14">
         <v>1607</v>
       </c>
-      <c r="H240" s="2">
+      <c r="H240" s="15">
         <v>168</v>
       </c>
-      <c r="I240" s="3">
+      <c r="I240" s="16">
         <v>584</v>
       </c>
-      <c r="J240" s="1">
+      <c r="J240" s="14">
         <v>1588</v>
       </c>
-      <c r="K240" s="2">
+      <c r="K240" s="15">
         <v>603</v>
       </c>
-      <c r="L240" s="3">
+      <c r="L240" s="16">
         <v>1195</v>
       </c>
-      <c r="M240" s="1">
+      <c r="M240" s="14">
         <v>497</v>
       </c>
-      <c r="N240" s="2">
+      <c r="N240" s="15">
         <v>45</v>
       </c>
-      <c r="O240" s="3">
+      <c r="O240" s="16">
         <v>274</v>
       </c>
-      <c r="P240" s="1">
+      <c r="P240" s="14">
         <v>724</v>
       </c>
-      <c r="Q240" s="2">
+      <c r="Q240" s="15">
         <v>114</v>
       </c>
-      <c r="R240" s="3">
+      <c r="R240" s="16">
         <v>986</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A241" s="1">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A241" s="17">
         <v>657</v>
       </c>
-      <c r="B241" s="2">
+      <c r="B241" s="18">
         <v>126</v>
       </c>
-      <c r="C241" s="3">
+      <c r="C241" s="19">
         <v>709</v>
       </c>
-      <c r="D241" s="1">
+      <c r="D241" s="17">
         <v>1469</v>
       </c>
-      <c r="E241" s="2">
+      <c r="E241" s="18">
         <v>228</v>
       </c>
-      <c r="F241" s="3">
+      <c r="F241" s="19">
         <v>950</v>
       </c>
-      <c r="G241" s="1">
+      <c r="G241" s="17">
         <v>1514</v>
       </c>
-      <c r="H241" s="2">
+      <c r="H241" s="18">
         <v>67</v>
       </c>
-      <c r="I241" s="3">
+      <c r="I241" s="19">
         <v>492</v>
       </c>
-      <c r="J241" s="1">
+      <c r="J241" s="17">
         <v>1763</v>
       </c>
-      <c r="K241" s="2">
+      <c r="K241" s="18">
         <v>575</v>
       </c>
-      <c r="L241" s="3">
+      <c r="L241" s="19">
         <v>1121</v>
       </c>
-      <c r="M241" s="1">
+      <c r="M241" s="17">
         <v>830</v>
       </c>
-      <c r="N241" s="2">
+      <c r="N241" s="18">
         <v>181</v>
       </c>
-      <c r="O241" s="3">
+      <c r="O241" s="19">
         <v>542</v>
       </c>
-      <c r="P241" s="1">
+      <c r="P241" s="17">
         <v>1121</v>
       </c>
-      <c r="Q241" s="2">
+      <c r="Q241" s="18">
         <v>159</v>
       </c>
-      <c r="R241" s="3">
+      <c r="R241" s="19">
         <v>593</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>570</v>
       </c>
@@ -14076,7 +14284,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>421</v>
       </c>
@@ -14132,7 +14340,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>648</v>
       </c>
@@ -14188,7 +14396,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>380</v>
       </c>
@@ -14244,7 +14452,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>366</v>
       </c>
@@ -14300,7 +14508,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>856</v>
       </c>
@@ -14356,7 +14564,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>1003</v>
       </c>
@@ -14412,7 +14620,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>807</v>
       </c>
@@ -14468,7 +14676,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>996</v>
       </c>
@@ -14524,7 +14732,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>488</v>
       </c>
@@ -14580,7 +14788,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>544</v>
       </c>
@@ -14636,7 +14844,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>675</v>
       </c>
@@ -14692,119 +14900,119 @@
         <v>507</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A254" s="1">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A254" s="14">
         <v>681</v>
       </c>
-      <c r="B254" s="2">
+      <c r="B254" s="15">
         <v>40</v>
       </c>
-      <c r="C254" s="3">
+      <c r="C254" s="16">
         <v>129</v>
       </c>
-      <c r="D254" s="1">
+      <c r="D254" s="14">
         <v>1596</v>
       </c>
-      <c r="E254" s="2">
+      <c r="E254" s="15">
         <v>122</v>
       </c>
-      <c r="F254" s="3">
+      <c r="F254" s="16">
         <v>970</v>
       </c>
-      <c r="G254" s="1">
+      <c r="G254" s="14">
         <v>1218</v>
       </c>
-      <c r="H254" s="2">
+      <c r="H254" s="15">
         <v>139</v>
       </c>
-      <c r="I254" s="3">
+      <c r="I254" s="16">
         <v>350</v>
       </c>
-      <c r="J254" s="1">
+      <c r="J254" s="14">
         <v>1850</v>
       </c>
-      <c r="K254" s="2">
+      <c r="K254" s="15">
         <v>578</v>
       </c>
-      <c r="L254" s="3">
+      <c r="L254" s="16">
         <v>858</v>
       </c>
-      <c r="M254" s="1">
+      <c r="M254" s="14">
         <v>600</v>
       </c>
-      <c r="N254" s="2">
+      <c r="N254" s="15">
         <v>112</v>
       </c>
-      <c r="O254" s="3">
+      <c r="O254" s="16">
         <v>298</v>
       </c>
-      <c r="P254" s="1">
+      <c r="P254" s="14">
         <v>665</v>
       </c>
-      <c r="Q254" s="2">
+      <c r="Q254" s="15">
         <v>25</v>
       </c>
-      <c r="R254" s="3">
+      <c r="R254" s="16">
         <v>761</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A255" s="1">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A255" s="17">
         <v>572</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255" s="18">
         <v>80</v>
       </c>
-      <c r="C255" s="3">
+      <c r="C255" s="19">
         <v>496</v>
       </c>
-      <c r="D255" s="1">
+      <c r="D255" s="17">
         <v>1227</v>
       </c>
-      <c r="E255" s="2">
+      <c r="E255" s="18">
         <v>66</v>
       </c>
-      <c r="F255" s="3">
+      <c r="F255" s="19">
         <v>1545</v>
       </c>
-      <c r="G255" s="1">
+      <c r="G255" s="17">
         <v>1597</v>
       </c>
-      <c r="H255" s="2">
+      <c r="H255" s="18">
         <v>329</v>
       </c>
-      <c r="I255" s="3">
+      <c r="I255" s="19">
         <v>719</v>
       </c>
-      <c r="J255" s="1">
+      <c r="J255" s="17">
         <v>2443</v>
       </c>
-      <c r="K255" s="2">
+      <c r="K255" s="18">
         <v>536</v>
       </c>
-      <c r="L255" s="3">
+      <c r="L255" s="19">
         <v>1442</v>
       </c>
-      <c r="M255" s="1">
+      <c r="M255" s="17">
         <v>663</v>
       </c>
-      <c r="N255" s="2">
+      <c r="N255" s="18">
         <v>177</v>
       </c>
-      <c r="O255" s="3">
+      <c r="O255" s="19">
         <v>802</v>
       </c>
-      <c r="P255" s="1">
+      <c r="P255" s="17">
         <v>854</v>
       </c>
-      <c r="Q255" s="2">
+      <c r="Q255" s="18">
         <v>105</v>
       </c>
-      <c r="R255" s="3">
+      <c r="R255" s="19">
         <v>498</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>766</v>
       </c>
@@ -14860,7 +15068,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>639</v>
       </c>
@@ -14916,7 +15124,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>595</v>
       </c>
@@ -14972,7 +15180,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>554</v>
       </c>
@@ -15028,7 +15236,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>960</v>
       </c>
@@ -15084,7 +15292,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>960</v>
       </c>
@@ -15140,7 +15348,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>977</v>
       </c>
@@ -15196,7 +15404,7 @@
         <v>6358</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>1135</v>
       </c>
@@ -15252,7 +15460,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>781</v>
       </c>
@@ -15308,7 +15516,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>805</v>
       </c>
@@ -15364,7 +15572,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>503</v>
       </c>
@@ -15420,7 +15628,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>528</v>
       </c>
@@ -15476,119 +15684,119 @@
         <v>835</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A268" s="1">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A268" s="14">
         <v>893</v>
       </c>
-      <c r="B268" s="2">
+      <c r="B268" s="15">
         <v>276</v>
       </c>
-      <c r="C268" s="3">
+      <c r="C268" s="16">
         <v>413</v>
       </c>
-      <c r="D268" s="1">
+      <c r="D268" s="14">
         <v>1510</v>
       </c>
-      <c r="E268" s="2">
+      <c r="E268" s="15">
         <v>146</v>
       </c>
-      <c r="F268" s="3">
+      <c r="F268" s="16">
         <v>825</v>
       </c>
-      <c r="G268" s="1">
+      <c r="G268" s="14">
         <v>1437</v>
       </c>
-      <c r="H268" s="2">
+      <c r="H268" s="15">
         <v>168</v>
       </c>
-      <c r="I268" s="3">
+      <c r="I268" s="16">
         <v>776</v>
       </c>
-      <c r="J268" s="1">
+      <c r="J268" s="14">
         <v>2291</v>
       </c>
-      <c r="K268" s="2">
+      <c r="K268" s="15">
         <v>408</v>
       </c>
-      <c r="L268" s="3">
+      <c r="L268" s="16">
         <v>1330</v>
       </c>
-      <c r="M268" s="1">
+      <c r="M268" s="14">
         <v>812</v>
       </c>
-      <c r="N268" s="2">
+      <c r="N268" s="15">
         <v>102</v>
       </c>
-      <c r="O268" s="3">
+      <c r="O268" s="16">
         <v>190</v>
       </c>
-      <c r="P268" s="1">
+      <c r="P268" s="14">
         <v>631</v>
       </c>
-      <c r="Q268" s="2">
+      <c r="Q268" s="15">
         <v>884</v>
       </c>
-      <c r="R268" s="3">
+      <c r="R268" s="16">
         <v>791</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A269" s="1">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A269" s="17">
         <v>589</v>
       </c>
-      <c r="B269" s="2">
+      <c r="B269" s="18">
         <v>146</v>
       </c>
-      <c r="C269" s="3">
+      <c r="C269" s="19">
         <v>440</v>
       </c>
-      <c r="D269" s="1">
+      <c r="D269" s="17">
         <v>1999</v>
       </c>
-      <c r="E269" s="2">
+      <c r="E269" s="18">
         <v>207</v>
       </c>
-      <c r="F269" s="3">
+      <c r="F269" s="19">
         <v>1297</v>
       </c>
-      <c r="G269" s="1">
+      <c r="G269" s="17">
         <v>1151</v>
       </c>
-      <c r="H269" s="2">
+      <c r="H269" s="18">
         <v>200</v>
       </c>
-      <c r="I269" s="3">
+      <c r="I269" s="19">
         <v>453</v>
       </c>
-      <c r="J269" s="1">
+      <c r="J269" s="17">
         <v>2360</v>
       </c>
-      <c r="K269" s="2">
+      <c r="K269" s="18">
         <v>436</v>
       </c>
-      <c r="L269" s="3">
+      <c r="L269" s="19">
         <v>1307</v>
       </c>
-      <c r="M269" s="1">
+      <c r="M269" s="17">
         <v>600</v>
       </c>
-      <c r="N269" s="2">
+      <c r="N269" s="18">
         <v>142</v>
       </c>
-      <c r="O269" s="3">
+      <c r="O269" s="19">
         <v>298</v>
       </c>
-      <c r="P269" s="1">
+      <c r="P269" s="17">
         <v>1178</v>
       </c>
-      <c r="Q269" s="2">
+      <c r="Q269" s="18">
         <v>101</v>
       </c>
-      <c r="R269" s="3">
+      <c r="R269" s="19">
         <v>681</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>717</v>
       </c>
@@ -15644,7 +15852,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>524</v>
       </c>
@@ -15700,7 +15908,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>423</v>
       </c>
@@ -15756,7 +15964,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>687</v>
       </c>
@@ -15812,7 +16020,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>554</v>
       </c>
@@ -15868,7 +16076,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>957</v>
       </c>
@@ -15924,7 +16132,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>996</v>
       </c>
@@ -15980,7 +16188,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>732</v>
       </c>
@@ -16036,7 +16244,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>431</v>
       </c>
@@ -16092,7 +16300,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>423</v>
       </c>
@@ -16148,7 +16356,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>364</v>
       </c>
@@ -16204,7 +16412,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>384</v>
       </c>
@@ -16260,119 +16468,119 @@
         <v>991</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A282" s="1">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A282" s="14">
         <v>559</v>
       </c>
-      <c r="B282" s="2">
+      <c r="B282" s="15">
         <v>149</v>
       </c>
-      <c r="C282" s="3">
+      <c r="C282" s="16">
         <v>557</v>
       </c>
-      <c r="D282" s="1">
+      <c r="D282" s="14">
         <v>1462</v>
       </c>
-      <c r="E282" s="2">
+      <c r="E282" s="15">
         <v>147</v>
       </c>
-      <c r="F282" s="3">
+      <c r="F282" s="16">
         <v>1003</v>
       </c>
-      <c r="G282" s="1">
+      <c r="G282" s="14">
         <v>1564</v>
       </c>
-      <c r="H282" s="2">
+      <c r="H282" s="15">
         <v>151</v>
       </c>
-      <c r="I282" s="3">
+      <c r="I282" s="16">
         <v>435</v>
       </c>
-      <c r="J282" s="1">
+      <c r="J282" s="14">
         <v>1997</v>
       </c>
-      <c r="K282" s="2">
+      <c r="K282" s="15">
         <v>481</v>
       </c>
-      <c r="L282" s="3">
+      <c r="L282" s="16">
         <v>861</v>
       </c>
-      <c r="M282" s="1">
+      <c r="M282" s="14">
         <v>540</v>
       </c>
-      <c r="N282" s="2">
+      <c r="N282" s="15">
         <v>176</v>
       </c>
-      <c r="O282" s="3">
+      <c r="O282" s="16">
         <v>242</v>
       </c>
-      <c r="P282" s="1">
+      <c r="P282" s="14">
         <v>1218</v>
       </c>
-      <c r="Q282" s="2">
+      <c r="Q282" s="15">
         <v>233</v>
       </c>
-      <c r="R282" s="3">
+      <c r="R282" s="16">
         <v>665</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A283" s="1">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A283" s="17">
         <v>781</v>
       </c>
-      <c r="B283" s="2">
+      <c r="B283" s="18">
         <v>261</v>
       </c>
-      <c r="C283" s="3">
+      <c r="C283" s="19">
         <v>693</v>
       </c>
-      <c r="D283" s="1">
+      <c r="D283" s="17">
         <v>1948</v>
       </c>
-      <c r="E283" s="2">
+      <c r="E283" s="18">
         <v>176</v>
       </c>
-      <c r="F283" s="3">
+      <c r="F283" s="19">
         <v>869</v>
       </c>
-      <c r="G283" s="1">
+      <c r="G283" s="17">
         <v>953</v>
       </c>
-      <c r="H283" s="2">
+      <c r="H283" s="18">
         <v>111</v>
       </c>
-      <c r="I283" s="3">
+      <c r="I283" s="19">
         <v>898</v>
       </c>
-      <c r="J283" s="1">
+      <c r="J283" s="17">
         <v>2511</v>
       </c>
-      <c r="K283" s="2">
+      <c r="K283" s="18">
         <v>104</v>
       </c>
-      <c r="L283" s="3">
+      <c r="L283" s="19">
         <v>1066</v>
       </c>
-      <c r="M283" s="1">
+      <c r="M283" s="17">
         <v>753</v>
       </c>
-      <c r="N283" s="2">
+      <c r="N283" s="18">
         <v>102</v>
       </c>
-      <c r="O283" s="3">
+      <c r="O283" s="19">
         <v>662</v>
       </c>
-      <c r="P283" s="1">
+      <c r="P283" s="17">
         <v>523</v>
       </c>
-      <c r="Q283" s="2">
+      <c r="Q283" s="18">
         <v>119</v>
       </c>
-      <c r="R283" s="3">
+      <c r="R283" s="19">
         <v>846</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>885</v>
       </c>
@@ -16428,7 +16636,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>846</v>
       </c>
@@ -16484,7 +16692,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>846</v>
       </c>
@@ -16540,7 +16748,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>502</v>
       </c>
@@ -16596,7 +16804,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>580</v>
       </c>
@@ -16652,7 +16860,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>701</v>
       </c>
@@ -16708,7 +16916,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>860</v>
       </c>
@@ -16764,7 +16972,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>806</v>
       </c>
@@ -16820,7 +17028,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>315</v>
       </c>
@@ -16876,7 +17084,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>645</v>
       </c>
@@ -16932,7 +17140,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>447</v>
       </c>
@@ -16988,7 +17196,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>605</v>
       </c>
@@ -17044,119 +17252,119 @@
         <v>472</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A296" s="1">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A296" s="14">
         <v>977</v>
       </c>
-      <c r="B296" s="2">
+      <c r="B296" s="15">
         <v>179</v>
       </c>
-      <c r="C296" s="3">
+      <c r="C296" s="16">
         <v>440</v>
       </c>
-      <c r="D296" s="1">
+      <c r="D296" s="14">
         <v>1547</v>
       </c>
-      <c r="E296" s="2">
+      <c r="E296" s="15">
         <v>196</v>
       </c>
-      <c r="F296" s="3">
+      <c r="F296" s="16">
         <v>1068</v>
       </c>
-      <c r="G296" s="1">
+      <c r="G296" s="14">
         <v>1096</v>
       </c>
-      <c r="H296" s="2">
+      <c r="H296" s="15">
         <v>131</v>
       </c>
-      <c r="I296" s="3">
+      <c r="I296" s="16">
         <v>483</v>
       </c>
-      <c r="J296" s="1">
+      <c r="J296" s="14">
         <v>1926</v>
       </c>
-      <c r="K296" s="2">
+      <c r="K296" s="15">
         <v>140</v>
       </c>
-      <c r="L296" s="3">
+      <c r="L296" s="16">
         <v>1441</v>
       </c>
-      <c r="M296" s="1">
+      <c r="M296" s="14">
         <v>369</v>
       </c>
-      <c r="N296" s="2">
+      <c r="N296" s="15">
         <v>65</v>
       </c>
-      <c r="O296" s="3">
+      <c r="O296" s="16">
         <v>104</v>
       </c>
-      <c r="P296" s="1">
+      <c r="P296" s="14">
         <v>887</v>
       </c>
-      <c r="Q296" s="2">
+      <c r="Q296" s="15">
         <v>133</v>
       </c>
-      <c r="R296" s="3">
+      <c r="R296" s="16">
         <v>800</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A297" s="1">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A297" s="17">
         <v>801</v>
       </c>
-      <c r="B297" s="2">
+      <c r="B297" s="18">
         <v>132</v>
       </c>
-      <c r="C297" s="3">
+      <c r="C297" s="19">
         <v>224</v>
       </c>
-      <c r="D297" s="1">
+      <c r="D297" s="17">
         <v>2007</v>
       </c>
-      <c r="E297" s="2">
+      <c r="E297" s="18">
         <v>486</v>
       </c>
-      <c r="F297" s="3">
+      <c r="F297" s="19">
         <v>1199</v>
       </c>
-      <c r="G297" s="1">
+      <c r="G297" s="17">
         <v>1096</v>
       </c>
-      <c r="H297" s="2">
+      <c r="H297" s="18">
         <v>131</v>
       </c>
-      <c r="I297" s="3">
+      <c r="I297" s="19">
         <v>483</v>
       </c>
-      <c r="J297" s="1">
+      <c r="J297" s="17">
         <v>2096</v>
       </c>
-      <c r="K297" s="2">
+      <c r="K297" s="18">
         <v>571</v>
       </c>
-      <c r="L297" s="3">
+      <c r="L297" s="19">
         <v>1230</v>
       </c>
-      <c r="M297" s="1">
+      <c r="M297" s="17">
         <v>945</v>
       </c>
-      <c r="N297" s="2">
+      <c r="N297" s="18">
         <v>112</v>
       </c>
-      <c r="O297" s="3">
+      <c r="O297" s="19">
         <v>350</v>
       </c>
-      <c r="P297" s="1">
+      <c r="P297" s="17">
         <v>827</v>
       </c>
-      <c r="Q297" s="2">
+      <c r="Q297" s="18">
         <v>96</v>
       </c>
-      <c r="R297" s="3">
+      <c r="R297" s="19">
         <v>730</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>753</v>
       </c>
@@ -17212,7 +17420,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>436</v>
       </c>
@@ -17268,7 +17476,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>605</v>
       </c>
@@ -17324,7 +17532,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>458</v>
       </c>
@@ -17380,7 +17588,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>595</v>
       </c>
@@ -17436,7 +17644,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>816</v>
       </c>
@@ -17492,7 +17700,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>715</v>
       </c>
@@ -17548,7 +17756,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>557</v>
       </c>
@@ -17604,7 +17812,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>610</v>
       </c>
@@ -17660,7 +17868,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>559</v>
       </c>
@@ -17716,7 +17924,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>564</v>
       </c>
@@ -17772,7 +17980,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>924</v>
       </c>
@@ -17828,119 +18036,119 @@
         <v>910</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A310" s="1">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A310" s="14">
         <v>549</v>
       </c>
-      <c r="B310" s="2">
+      <c r="B310" s="15">
         <v>25</v>
       </c>
-      <c r="C310" s="3">
+      <c r="C310" s="16">
         <v>266</v>
       </c>
-      <c r="D310" s="1">
+      <c r="D310" s="14">
         <v>1356</v>
       </c>
-      <c r="E310" s="2">
+      <c r="E310" s="15">
         <v>112</v>
       </c>
-      <c r="F310" s="3">
+      <c r="F310" s="16">
         <v>1114</v>
       </c>
-      <c r="G310" s="1">
+      <c r="G310" s="14">
         <v>1147</v>
       </c>
-      <c r="H310" s="2">
+      <c r="H310" s="15">
         <v>173</v>
       </c>
-      <c r="I310" s="3">
+      <c r="I310" s="16">
         <v>651</v>
       </c>
-      <c r="J310" s="1">
+      <c r="J310" s="14">
         <v>2003</v>
       </c>
-      <c r="K310" s="2">
+      <c r="K310" s="15">
         <v>171</v>
       </c>
-      <c r="L310" s="3">
+      <c r="L310" s="16">
         <v>1569</v>
       </c>
-      <c r="M310" s="1">
+      <c r="M310" s="14">
         <v>673</v>
       </c>
-      <c r="N310" s="2">
+      <c r="N310" s="15">
         <v>61</v>
       </c>
-      <c r="O310" s="3">
+      <c r="O310" s="16">
         <v>370</v>
       </c>
-      <c r="P310" s="1">
+      <c r="P310" s="14">
         <v>1536</v>
       </c>
-      <c r="Q310" s="2">
+      <c r="Q310" s="15">
         <v>23</v>
       </c>
-      <c r="R310" s="3">
+      <c r="R310" s="16">
         <v>719</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A311" s="1">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A311" s="17">
         <v>722</v>
       </c>
-      <c r="B311" s="2">
+      <c r="B311" s="18">
         <v>0</v>
       </c>
-      <c r="C311" s="3">
+      <c r="C311" s="19">
         <v>299</v>
       </c>
-      <c r="D311" s="1">
+      <c r="D311" s="17">
         <v>862</v>
       </c>
-      <c r="E311" s="2">
+      <c r="E311" s="18">
         <v>102</v>
       </c>
-      <c r="F311" s="3">
+      <c r="F311" s="19">
         <v>826</v>
       </c>
-      <c r="G311" s="1">
+      <c r="G311" s="17">
         <v>1729</v>
       </c>
-      <c r="H311" s="2">
+      <c r="H311" s="18">
         <v>104</v>
       </c>
-      <c r="I311" s="3">
+      <c r="I311" s="19">
         <v>1042</v>
       </c>
-      <c r="J311" s="1">
+      <c r="J311" s="17">
         <v>2095</v>
       </c>
-      <c r="K311" s="2">
+      <c r="K311" s="18">
         <v>512</v>
       </c>
-      <c r="L311" s="3">
+      <c r="L311" s="19">
         <v>1720</v>
       </c>
-      <c r="M311" s="1">
+      <c r="M311" s="17">
         <v>269</v>
       </c>
-      <c r="N311" s="2">
+      <c r="N311" s="18">
         <v>100</v>
       </c>
-      <c r="O311" s="3">
+      <c r="O311" s="19">
         <v>138</v>
       </c>
-      <c r="P311" s="1">
+      <c r="P311" s="17">
         <v>1066</v>
       </c>
-      <c r="Q311" s="2">
+      <c r="Q311" s="18">
         <v>93</v>
       </c>
-      <c r="R311" s="3">
+      <c r="R311" s="19">
         <v>466</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>449</v>
       </c>
@@ -17996,7 +18204,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>527</v>
       </c>
@@ -18052,7 +18260,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>460</v>
       </c>
@@ -18108,7 +18316,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -18164,7 +18372,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>533</v>
       </c>
@@ -18220,7 +18428,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>675</v>
       </c>
@@ -18276,7 +18484,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>715</v>
       </c>
@@ -18332,7 +18540,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>541</v>
       </c>
@@ -18388,7 +18596,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>532</v>
       </c>
@@ -18444,7 +18652,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>623</v>
       </c>
@@ -18500,7 +18708,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>478</v>
       </c>
@@ -18556,7 +18764,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>405</v>
       </c>
@@ -18612,119 +18820,119 @@
         <v>572</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A324" s="1">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A324" s="14">
         <v>775</v>
       </c>
-      <c r="B324" s="2">
+      <c r="B324" s="15">
         <v>25</v>
       </c>
-      <c r="C324" s="3">
+      <c r="C324" s="16">
         <v>308</v>
       </c>
-      <c r="D324" s="1">
+      <c r="D324" s="14">
         <v>977</v>
       </c>
-      <c r="E324" s="2">
+      <c r="E324" s="15">
         <v>157</v>
       </c>
-      <c r="F324" s="3">
+      <c r="F324" s="16">
         <v>446</v>
       </c>
-      <c r="G324" s="1">
+      <c r="G324" s="14">
         <v>1478</v>
       </c>
-      <c r="H324" s="2">
+      <c r="H324" s="15">
         <v>139</v>
       </c>
-      <c r="I324" s="3">
+      <c r="I324" s="16">
         <v>260</v>
       </c>
-      <c r="J324" s="1">
+      <c r="J324" s="14">
         <v>1639</v>
       </c>
-      <c r="K324" s="2">
+      <c r="K324" s="15">
         <v>363</v>
       </c>
-      <c r="L324" s="3">
+      <c r="L324" s="16">
         <v>854</v>
       </c>
-      <c r="M324" s="1">
+      <c r="M324" s="14">
         <v>431</v>
       </c>
-      <c r="N324" s="2">
+      <c r="N324" s="15">
         <v>50</v>
       </c>
-      <c r="O324" s="3">
+      <c r="O324" s="16">
         <v>206</v>
       </c>
-      <c r="P324" s="1">
+      <c r="P324" s="14">
         <v>1363</v>
       </c>
-      <c r="Q324" s="2">
+      <c r="Q324" s="15">
         <v>65</v>
       </c>
-      <c r="R324" s="3">
+      <c r="R324" s="16">
         <v>949</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A325" s="1">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A325" s="17">
         <v>568</v>
       </c>
-      <c r="B325" s="2">
+      <c r="B325" s="18">
         <v>50</v>
       </c>
-      <c r="C325" s="3">
+      <c r="C325" s="19">
         <v>346</v>
       </c>
-      <c r="D325" s="1">
+      <c r="D325" s="17">
         <v>1156</v>
       </c>
-      <c r="E325" s="2">
+      <c r="E325" s="18">
         <v>29</v>
       </c>
-      <c r="F325" s="3">
+      <c r="F325" s="19">
         <v>614</v>
       </c>
-      <c r="G325" s="1">
+      <c r="G325" s="17">
         <v>1415</v>
       </c>
-      <c r="H325" s="2">
+      <c r="H325" s="18">
         <v>0</v>
       </c>
-      <c r="I325" s="3">
+      <c r="I325" s="19">
         <v>976</v>
       </c>
-      <c r="J325" s="1">
+      <c r="J325" s="17">
         <v>2397</v>
       </c>
-      <c r="K325" s="2">
+      <c r="K325" s="18">
         <v>273</v>
       </c>
-      <c r="L325" s="3">
+      <c r="L325" s="19">
         <v>1028</v>
       </c>
-      <c r="M325" s="1">
+      <c r="M325" s="17">
         <v>742</v>
       </c>
-      <c r="N325" s="2">
+      <c r="N325" s="18">
         <v>144</v>
       </c>
-      <c r="O325" s="3">
+      <c r="O325" s="19">
         <v>179</v>
       </c>
-      <c r="P325" s="1">
+      <c r="P325" s="17">
         <v>680</v>
       </c>
-      <c r="Q325" s="2">
+      <c r="Q325" s="18">
         <v>172</v>
       </c>
-      <c r="R325" s="3">
+      <c r="R325" s="19">
         <v>553</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>550</v>
       </c>
@@ -18780,7 +18988,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>778</v>
       </c>
@@ -18836,7 +19044,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>385</v>
       </c>
@@ -18892,7 +19100,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>900</v>
       </c>
@@ -18948,7 +19156,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>542</v>
       </c>
@@ -19004,7 +19212,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>639</v>
       </c>
@@ -19060,7 +19268,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>495</v>
       </c>
@@ -19116,7 +19324,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>981</v>
       </c>
@@ -19172,7 +19380,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>374</v>
       </c>
@@ -19228,7 +19436,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>992</v>
       </c>
@@ -19284,7 +19492,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>1013</v>
       </c>
@@ -19340,7 +19548,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>924</v>
       </c>
@@ -19396,63 +19604,63 @@
         <v>302</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A338" s="1">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A338" s="14">
         <v>852</v>
       </c>
-      <c r="B338" s="2">
+      <c r="B338" s="15">
         <v>44</v>
       </c>
-      <c r="C338" s="3">
+      <c r="C338" s="16">
         <v>549</v>
       </c>
-      <c r="D338" s="1">
+      <c r="D338" s="14">
         <v>2190</v>
       </c>
-      <c r="E338" s="2">
+      <c r="E338" s="15">
         <v>80</v>
       </c>
-      <c r="F338" s="3">
+      <c r="F338" s="16">
         <v>1014</v>
       </c>
-      <c r="G338" s="1">
+      <c r="G338" s="14">
         <v>1164</v>
       </c>
-      <c r="H338" s="2">
+      <c r="H338" s="15">
         <v>141</v>
       </c>
-      <c r="I338" s="3">
+      <c r="I338" s="16">
         <v>411</v>
       </c>
-      <c r="J338" s="1">
+      <c r="J338" s="14">
         <v>1876</v>
       </c>
-      <c r="K338" s="2">
+      <c r="K338" s="15">
         <v>318</v>
       </c>
-      <c r="L338" s="3">
+      <c r="L338" s="16">
         <v>1598</v>
       </c>
-      <c r="M338" s="1">
+      <c r="M338" s="14">
         <v>610</v>
       </c>
-      <c r="N338" s="2">
+      <c r="N338" s="15">
         <v>22</v>
       </c>
-      <c r="O338" s="3">
+      <c r="O338" s="16">
         <v>214</v>
       </c>
-      <c r="P338" s="1">
+      <c r="P338" s="14">
         <v>1111</v>
       </c>
-      <c r="Q338" s="2">
+      <c r="Q338" s="15">
         <v>92</v>
       </c>
-      <c r="R338" s="3">
+      <c r="R338" s="16">
         <v>984</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>1072</v>
       </c>
@@ -19508,7 +19716,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>1179</v>
       </c>
@@ -19564,7 +19772,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>1087</v>
       </c>
@@ -19620,7 +19828,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>639</v>
       </c>
@@ -19676,7 +19884,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>1049</v>
       </c>
@@ -19732,7 +19940,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>581</v>
       </c>
@@ -19788,7 +19996,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>684</v>
       </c>
@@ -19844,7 +20052,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>1221</v>
       </c>
@@ -19900,7 +20108,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>1242</v>
       </c>
@@ -19956,7 +20164,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>1362</v>
       </c>
@@ -20012,7 +20220,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>873</v>
       </c>
@@ -20068,7 +20276,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>428</v>
       </c>
@@ -20124,7 +20332,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>734</v>
       </c>
@@ -20180,63 +20388,63 @@
         <v>736</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A352" s="1">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A352" s="14">
         <v>709</v>
       </c>
-      <c r="B352" s="2">
+      <c r="B352" s="15">
         <v>51</v>
       </c>
-      <c r="C352" s="3">
+      <c r="C352" s="16">
         <v>518</v>
       </c>
-      <c r="D352" s="1">
+      <c r="D352" s="14">
         <v>1904</v>
       </c>
-      <c r="E352" s="2">
+      <c r="E352" s="15">
         <v>78</v>
       </c>
-      <c r="F352" s="3">
+      <c r="F352" s="16">
         <v>974</v>
       </c>
-      <c r="G352" s="1">
+      <c r="G352" s="14">
         <v>1449</v>
       </c>
-      <c r="H352" s="2">
+      <c r="H352" s="15">
         <v>96</v>
       </c>
-      <c r="I352" s="3">
+      <c r="I352" s="16">
         <v>353</v>
       </c>
-      <c r="J352" s="1">
+      <c r="J352" s="14">
         <v>2330</v>
       </c>
-      <c r="K352" s="2">
+      <c r="K352" s="15">
         <v>397</v>
       </c>
-      <c r="L352" s="3">
+      <c r="L352" s="16">
         <v>1375</v>
       </c>
-      <c r="M352" s="1">
+      <c r="M352" s="14">
         <v>819</v>
       </c>
-      <c r="N352" s="2">
+      <c r="N352" s="15">
         <v>68</v>
       </c>
-      <c r="O352" s="3">
+      <c r="O352" s="16">
         <v>123</v>
       </c>
-      <c r="P352" s="1">
+      <c r="P352" s="14">
         <v>633</v>
       </c>
-      <c r="Q352" s="2">
+      <c r="Q352" s="15">
         <v>132</v>
       </c>
-      <c r="R352" s="3">
+      <c r="R352" s="16">
         <v>382</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>1280</v>
       </c>
@@ -20292,7 +20500,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>454</v>
       </c>
@@ -20348,7 +20556,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>470</v>
       </c>
@@ -20404,7 +20612,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>415</v>
       </c>
@@ -20460,7 +20668,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>572</v>
       </c>
@@ -20516,7 +20724,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>1124</v>
       </c>
@@ -20572,7 +20780,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>1555</v>
       </c>
@@ -20628,7 +20836,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>848</v>
       </c>
@@ -20684,7 +20892,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>464</v>
       </c>
@@ -20740,7 +20948,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>606</v>
       </c>
@@ -20796,7 +21004,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>403</v>
       </c>
@@ -20852,7 +21060,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>622</v>
       </c>
@@ -20908,7 +21116,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>1008</v>
       </c>
@@ -20964,7 +21172,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="366" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A366" s="4">
         <v>853</v>
       </c>
@@ -21020,7 +21228,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A368" s="10">
         <f>AVERAGEIF(A3:A366,"&gt;0")</f>
         <v>960.08791208791206</v>
@@ -21030,7 +21238,7 @@
         <v>125.82369942196532</v>
       </c>
       <c r="C368" s="10">
-        <f t="shared" ref="C368:R369" si="0">AVERAGEIF(C3:C366,"&gt;0")</f>
+        <f t="shared" ref="C368:R368" si="0">AVERAGEIF(C3:C366,"&gt;0")</f>
         <v>442.94765840220384</v>
       </c>
       <c r="D368" s="10">
@@ -21094,7 +21302,7 @@
         <v>639.10439560439556</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A369" s="10">
         <v>960.08913649025067</v>
       </c>
@@ -21150,7 +21358,1021 @@
         <v>639.10584958217271</v>
       </c>
     </row>
+    <row r="371" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>7</v>
+      </c>
+      <c r="T371" s="20"/>
+      <c r="U371" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="V371" s="28"/>
+    </row>
+    <row r="372" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A372" s="10"/>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="E372">
+        <v>0</v>
+      </c>
+      <c r="H372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>0</v>
+      </c>
+      <c r="N372">
+        <v>0</v>
+      </c>
+      <c r="Q372">
+        <v>0</v>
+      </c>
+      <c r="T372" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="U372" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="V372" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A373" s="10"/>
+      <c r="B373" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U373,1)):INDIRECT(ADDRESS(V373,3)))</f>
+        <v>16718</v>
+      </c>
+      <c r="E373">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U373,4)):INDIRECT(ADDRESS(V373,6)))</f>
+        <v>29069</v>
+      </c>
+      <c r="H373">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U373,7)):INDIRECT(ADDRESS(V373,9)))</f>
+        <v>20951</v>
+      </c>
+      <c r="K373">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U373,10)):INDIRECT(ADDRESS(V373,12)))</f>
+        <v>40973</v>
+      </c>
+      <c r="N373">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U373,13)):INDIRECT(ADDRESS(V373,15)))</f>
+        <v>17533</v>
+      </c>
+      <c r="Q373">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U373,16)):INDIRECT(ADDRESS(V373,18)))</f>
+        <v>20270</v>
+      </c>
+      <c r="T373" s="21">
+        <v>1</v>
+      </c>
+      <c r="U373" s="22">
+        <v>3</v>
+      </c>
+      <c r="V373" s="23">
+        <f>U373+13</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="374" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A374" s="10"/>
+      <c r="B374" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U374,1)):INDIRECT(ADDRESS(V374,3)))</f>
+        <v>17516</v>
+      </c>
+      <c r="E374">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U374,4)):INDIRECT(ADDRESS(V374,6)))</f>
+        <v>31668</v>
+      </c>
+      <c r="H374">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U374,7)):INDIRECT(ADDRESS(V374,9)))</f>
+        <v>17346</v>
+      </c>
+      <c r="K374">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U374,10)):INDIRECT(ADDRESS(V374,12)))</f>
+        <v>45914</v>
+      </c>
+      <c r="N374">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U374,13)):INDIRECT(ADDRESS(V374,15)))</f>
+        <v>14828</v>
+      </c>
+      <c r="Q374">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U374,16)):INDIRECT(ADDRESS(V374,18)))</f>
+        <v>24157</v>
+      </c>
+      <c r="T374" s="21">
+        <v>2</v>
+      </c>
+      <c r="U374" s="22">
+        <f>U373+14</f>
+        <v>17</v>
+      </c>
+      <c r="V374" s="23">
+        <f t="shared" ref="V374:V398" si="1">U374+13</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="375" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A375" s="10"/>
+      <c r="B375" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U375,1)):INDIRECT(ADDRESS(V375,3)))</f>
+        <v>18891</v>
+      </c>
+      <c r="E375">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U375,4)):INDIRECT(ADDRESS(V375,6)))</f>
+        <v>31427</v>
+      </c>
+      <c r="H375">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U375,7)):INDIRECT(ADDRESS(V375,9)))</f>
+        <v>14274</v>
+      </c>
+      <c r="K375">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U375,10)):INDIRECT(ADDRESS(V375,12)))</f>
+        <v>44214</v>
+      </c>
+      <c r="N375">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U375,13)):INDIRECT(ADDRESS(V375,15)))</f>
+        <v>12710</v>
+      </c>
+      <c r="Q375">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U375,16)):INDIRECT(ADDRESS(V375,18)))</f>
+        <v>20005</v>
+      </c>
+      <c r="T375" s="21">
+        <v>3</v>
+      </c>
+      <c r="U375" s="22">
+        <f>U374+14</f>
+        <v>31</v>
+      </c>
+      <c r="V375" s="23">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="376" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A376" s="10"/>
+      <c r="B376" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U376,1)):INDIRECT(ADDRESS(V376,3)))</f>
+        <v>22309</v>
+      </c>
+      <c r="E376">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U376,4)):INDIRECT(ADDRESS(V376,6)))</f>
+        <v>33204</v>
+      </c>
+      <c r="H376">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U376,7)):INDIRECT(ADDRESS(V376,9)))</f>
+        <v>17899</v>
+      </c>
+      <c r="K376">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U376,10)):INDIRECT(ADDRESS(V376,12)))</f>
+        <v>44151</v>
+      </c>
+      <c r="N376">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U376,13)):INDIRECT(ADDRESS(V376,15)))</f>
+        <v>14789</v>
+      </c>
+      <c r="Q376">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U376,16)):INDIRECT(ADDRESS(V376,18)))</f>
+        <v>21236</v>
+      </c>
+      <c r="T376" s="21">
+        <v>4</v>
+      </c>
+      <c r="U376" s="22">
+        <f>U375+14</f>
+        <v>45</v>
+      </c>
+      <c r="V376" s="23">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="377" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A377" s="10"/>
+      <c r="B377" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U377,1)):INDIRECT(ADDRESS(V377,3)))</f>
+        <v>27664</v>
+      </c>
+      <c r="E377">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U377,4)):INDIRECT(ADDRESS(V377,6)))</f>
+        <v>33550</v>
+      </c>
+      <c r="H377">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U377,7)):INDIRECT(ADDRESS(V377,9)))</f>
+        <v>20440</v>
+      </c>
+      <c r="K377">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U377,10)):INDIRECT(ADDRESS(V377,12)))</f>
+        <v>48755</v>
+      </c>
+      <c r="N377">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U377,13)):INDIRECT(ADDRESS(V377,15)))</f>
+        <v>14044</v>
+      </c>
+      <c r="Q377">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U377,16)):INDIRECT(ADDRESS(V377,18)))</f>
+        <v>20774</v>
+      </c>
+      <c r="T377" s="21">
+        <v>5</v>
+      </c>
+      <c r="U377" s="22">
+        <f t="shared" ref="U377:U398" si="2">U376+14</f>
+        <v>59</v>
+      </c>
+      <c r="V377" s="23">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="378" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A378" s="10"/>
+      <c r="B378" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U378,1)):INDIRECT(ADDRESS(V378,3)))</f>
+        <v>27326</v>
+      </c>
+      <c r="E378">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U378,4)):INDIRECT(ADDRESS(V378,6)))</f>
+        <v>31397</v>
+      </c>
+      <c r="H378">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U378,7)):INDIRECT(ADDRESS(V378,9)))</f>
+        <v>21922</v>
+      </c>
+      <c r="K378">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U378,10)):INDIRECT(ADDRESS(V378,12)))</f>
+        <v>51762</v>
+      </c>
+      <c r="N378">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U378,13)):INDIRECT(ADDRESS(V378,15)))</f>
+        <v>14066</v>
+      </c>
+      <c r="Q378">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U378,16)):INDIRECT(ADDRESS(V378,18)))</f>
+        <v>21199</v>
+      </c>
+      <c r="T378" s="21">
+        <v>6</v>
+      </c>
+      <c r="U378" s="22">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="V378" s="23">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="379" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A379" s="10"/>
+      <c r="B379" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U379,1)):INDIRECT(ADDRESS(V379,3)))</f>
+        <v>33987</v>
+      </c>
+      <c r="E379">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U379,4)):INDIRECT(ADDRESS(V379,6)))</f>
+        <v>32071</v>
+      </c>
+      <c r="H379">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U379,7)):INDIRECT(ADDRESS(V379,9)))</f>
+        <v>21111</v>
+      </c>
+      <c r="K379">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U379,10)):INDIRECT(ADDRESS(V379,12)))</f>
+        <v>47776</v>
+      </c>
+      <c r="N379">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U379,13)):INDIRECT(ADDRESS(V379,15)))</f>
+        <v>16112</v>
+      </c>
+      <c r="Q379">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U379,16)):INDIRECT(ADDRESS(V379,18)))</f>
+        <v>23523</v>
+      </c>
+      <c r="T379" s="21">
+        <v>7</v>
+      </c>
+      <c r="U379" s="22">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="V379" s="23">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="380" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A380" s="10"/>
+      <c r="B380" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U380,1)):INDIRECT(ADDRESS(V380,3)))</f>
+        <v>29229</v>
+      </c>
+      <c r="E380">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U380,4)):INDIRECT(ADDRESS(V380,6)))</f>
+        <v>34818</v>
+      </c>
+      <c r="H380">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U380,7)):INDIRECT(ADDRESS(V380,9)))</f>
+        <v>24455</v>
+      </c>
+      <c r="K380">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U380,10)):INDIRECT(ADDRESS(V380,12)))</f>
+        <v>46422</v>
+      </c>
+      <c r="N380">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U380,13)):INDIRECT(ADDRESS(V380,15)))</f>
+        <v>15086</v>
+      </c>
+      <c r="Q380">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U380,16)):INDIRECT(ADDRESS(V380,18)))</f>
+        <v>22751</v>
+      </c>
+      <c r="T380" s="21">
+        <v>8</v>
+      </c>
+      <c r="U380" s="22">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="V380" s="23">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="381" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A381" s="10"/>
+      <c r="B381" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U381,1)):INDIRECT(ADDRESS(V381,3)))</f>
+        <v>27303</v>
+      </c>
+      <c r="E381">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U381,4)):INDIRECT(ADDRESS(V381,6)))</f>
+        <v>33720</v>
+      </c>
+      <c r="H381">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U381,7)):INDIRECT(ADDRESS(V381,9)))</f>
+        <v>23405</v>
+      </c>
+      <c r="K381">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U381,10)):INDIRECT(ADDRESS(V381,12)))</f>
+        <v>46491</v>
+      </c>
+      <c r="N381">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U381,13)):INDIRECT(ADDRESS(V381,15)))</f>
+        <v>17531</v>
+      </c>
+      <c r="Q381">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U381,16)):INDIRECT(ADDRESS(V381,18)))</f>
+        <v>24809</v>
+      </c>
+      <c r="T381" s="21">
+        <v>9</v>
+      </c>
+      <c r="U381" s="22">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="V381" s="23">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="382" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A382" s="10"/>
+      <c r="B382" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U382,1)):INDIRECT(ADDRESS(V382,3)))</f>
+        <v>26713</v>
+      </c>
+      <c r="E382">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U382,4)):INDIRECT(ADDRESS(V382,6)))</f>
+        <v>34230</v>
+      </c>
+      <c r="H382">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U382,7)):INDIRECT(ADDRESS(V382,9)))</f>
+        <v>24687</v>
+      </c>
+      <c r="K382">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U382,10)):INDIRECT(ADDRESS(V382,12)))</f>
+        <v>46660</v>
+      </c>
+      <c r="N382">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U382,13)):INDIRECT(ADDRESS(V382,15)))</f>
+        <v>14016</v>
+      </c>
+      <c r="Q382">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U382,16)):INDIRECT(ADDRESS(V382,18)))</f>
+        <v>22711</v>
+      </c>
+      <c r="T382" s="21">
+        <v>10</v>
+      </c>
+      <c r="U382" s="22">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="V382" s="23">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="383" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B383" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U383,1)):INDIRECT(ADDRESS(V383,3)))</f>
+        <v>26535</v>
+      </c>
+      <c r="E383">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U383,4)):INDIRECT(ADDRESS(V383,6)))</f>
+        <v>37339</v>
+      </c>
+      <c r="H383">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U383,7)):INDIRECT(ADDRESS(V383,9)))</f>
+        <v>27125</v>
+      </c>
+      <c r="K383">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U383,10)):INDIRECT(ADDRESS(V383,12)))</f>
+        <v>48071</v>
+      </c>
+      <c r="N383">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U383,13)):INDIRECT(ADDRESS(V383,15)))</f>
+        <v>16766</v>
+      </c>
+      <c r="Q383">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U383,16)):INDIRECT(ADDRESS(V383,18)))</f>
+        <v>21230</v>
+      </c>
+      <c r="T383" s="21">
+        <v>11</v>
+      </c>
+      <c r="U383" s="22">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="V383" s="23">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="384" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B384" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U384,1)):INDIRECT(ADDRESS(V384,3)))</f>
+        <v>26149</v>
+      </c>
+      <c r="E384">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U384,4)):INDIRECT(ADDRESS(V384,6)))</f>
+        <v>32374</v>
+      </c>
+      <c r="H384">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U384,7)):INDIRECT(ADDRESS(V384,9)))</f>
+        <v>24349</v>
+      </c>
+      <c r="K384">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U384,10)):INDIRECT(ADDRESS(V384,12)))</f>
+        <v>49828</v>
+      </c>
+      <c r="N384">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U384,13)):INDIRECT(ADDRESS(V384,15)))</f>
+        <v>15327</v>
+      </c>
+      <c r="Q384">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U384,16)):INDIRECT(ADDRESS(V384,18)))</f>
+        <v>23082</v>
+      </c>
+      <c r="T384" s="21">
+        <v>12</v>
+      </c>
+      <c r="U384" s="22">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="V384" s="23">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="385" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B385" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U385,1)):INDIRECT(ADDRESS(V385,3)))</f>
+        <v>24910</v>
+      </c>
+      <c r="E385">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U385,4)):INDIRECT(ADDRESS(V385,6)))</f>
+        <v>37223</v>
+      </c>
+      <c r="H385">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U385,7)):INDIRECT(ADDRESS(V385,9)))</f>
+        <v>29513</v>
+      </c>
+      <c r="K385">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U385,10)):INDIRECT(ADDRESS(V385,12)))</f>
+        <v>50014</v>
+      </c>
+      <c r="N385">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U385,13)):INDIRECT(ADDRESS(V385,15)))</f>
+        <v>15375</v>
+      </c>
+      <c r="Q385">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U385,16)):INDIRECT(ADDRESS(V385,18)))</f>
+        <v>24777</v>
+      </c>
+      <c r="T385" s="21">
+        <v>13</v>
+      </c>
+      <c r="U385" s="22">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="V385" s="23">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="386" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B386" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U386,1)):INDIRECT(ADDRESS(V386,3)))</f>
+        <v>24317</v>
+      </c>
+      <c r="E386">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U386,4)):INDIRECT(ADDRESS(V386,6)))</f>
+        <v>35917</v>
+      </c>
+      <c r="H386">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U386,7)):INDIRECT(ADDRESS(V386,9)))</f>
+        <v>28713</v>
+      </c>
+      <c r="K386">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U386,10)):INDIRECT(ADDRESS(V386,12)))</f>
+        <v>51383</v>
+      </c>
+      <c r="N386">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U386,13)):INDIRECT(ADDRESS(V386,15)))</f>
+        <v>12275</v>
+      </c>
+      <c r="Q386">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U386,16)):INDIRECT(ADDRESS(V386,18)))</f>
+        <v>21531</v>
+      </c>
+      <c r="T386" s="21">
+        <v>14</v>
+      </c>
+      <c r="U386" s="22">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="V386" s="23">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="387" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B387" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U387,1)):INDIRECT(ADDRESS(V387,3)))</f>
+        <v>23846</v>
+      </c>
+      <c r="E387">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U387,4)):INDIRECT(ADDRESS(V387,6)))</f>
+        <v>34795</v>
+      </c>
+      <c r="H387">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U387,7)):INDIRECT(ADDRESS(V387,9)))</f>
+        <v>22750</v>
+      </c>
+      <c r="K387">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U387,10)):INDIRECT(ADDRESS(V387,12)))</f>
+        <v>46033</v>
+      </c>
+      <c r="N387">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U387,13)):INDIRECT(ADDRESS(V387,15)))</f>
+        <v>11723</v>
+      </c>
+      <c r="Q387">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U387,16)):INDIRECT(ADDRESS(V387,18)))</f>
+        <v>18079</v>
+      </c>
+      <c r="T387" s="21">
+        <v>15</v>
+      </c>
+      <c r="U387" s="22">
+        <f t="shared" si="2"/>
+        <v>199</v>
+      </c>
+      <c r="V387" s="23">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="388" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B388" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U388,1)):INDIRECT(ADDRESS(V388,3)))</f>
+        <v>19133</v>
+      </c>
+      <c r="E388">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U388,4)):INDIRECT(ADDRESS(V388,6)))</f>
+        <v>35610</v>
+      </c>
+      <c r="H388">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U388,7)):INDIRECT(ADDRESS(V388,9)))</f>
+        <v>27052</v>
+      </c>
+      <c r="K388">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U388,10)):INDIRECT(ADDRESS(V388,12)))</f>
+        <v>47685</v>
+      </c>
+      <c r="N388">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U388,13)):INDIRECT(ADDRESS(V388,15)))</f>
+        <v>12590</v>
+      </c>
+      <c r="Q388">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U388,16)):INDIRECT(ADDRESS(V388,18)))</f>
+        <v>19979</v>
+      </c>
+      <c r="T388" s="21">
+        <v>16</v>
+      </c>
+      <c r="U388" s="22">
+        <f t="shared" si="2"/>
+        <v>213</v>
+      </c>
+      <c r="V388" s="23">
+        <f t="shared" si="1"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="389" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B389" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U389,1)):INDIRECT(ADDRESS(V389,3)))</f>
+        <v>17017</v>
+      </c>
+      <c r="E389">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U389,4)):INDIRECT(ADDRESS(V389,6)))</f>
+        <v>35135</v>
+      </c>
+      <c r="H389">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U389,7)):INDIRECT(ADDRESS(V389,9)))</f>
+        <v>27879</v>
+      </c>
+      <c r="K389">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U389,10)):INDIRECT(ADDRESS(V389,12)))</f>
+        <v>51963</v>
+      </c>
+      <c r="N389">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U389,13)):INDIRECT(ADDRESS(V389,15)))</f>
+        <v>12079</v>
+      </c>
+      <c r="Q389">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U389,16)):INDIRECT(ADDRESS(V389,18)))</f>
+        <v>23582</v>
+      </c>
+      <c r="T389" s="21">
+        <v>17</v>
+      </c>
+      <c r="U389" s="22">
+        <f t="shared" si="2"/>
+        <v>227</v>
+      </c>
+      <c r="V389" s="23">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="390" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B390" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U390,1)):INDIRECT(ADDRESS(V390,3)))</f>
+        <v>15427</v>
+      </c>
+      <c r="E390">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U390,4)):INDIRECT(ADDRESS(V390,6)))</f>
+        <v>35287</v>
+      </c>
+      <c r="H390">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U390,7)):INDIRECT(ADDRESS(V390,9)))</f>
+        <v>27831</v>
+      </c>
+      <c r="K390">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U390,10)):INDIRECT(ADDRESS(V390,12)))</f>
+        <v>50964</v>
+      </c>
+      <c r="N390">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U390,13)):INDIRECT(ADDRESS(V390,15)))</f>
+        <v>12668</v>
+      </c>
+      <c r="Q390">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U390,16)):INDIRECT(ADDRESS(V390,18)))</f>
+        <v>22780</v>
+      </c>
+      <c r="T390" s="21">
+        <v>18</v>
+      </c>
+      <c r="U390" s="22">
+        <f t="shared" si="2"/>
+        <v>241</v>
+      </c>
+      <c r="V390" s="23">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="391" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B391" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U391,1)):INDIRECT(ADDRESS(V391,3)))</f>
+        <v>17058</v>
+      </c>
+      <c r="E391">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U391,4)):INDIRECT(ADDRESS(V391,6)))</f>
+        <v>33247</v>
+      </c>
+      <c r="H391">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U391,7)):INDIRECT(ADDRESS(V391,9)))</f>
+        <v>27683</v>
+      </c>
+      <c r="K391">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U391,10)):INDIRECT(ADDRESS(V391,12)))</f>
+        <v>51805</v>
+      </c>
+      <c r="N391">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U391,13)):INDIRECT(ADDRESS(V391,15)))</f>
+        <v>12734</v>
+      </c>
+      <c r="Q391">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U391,16)):INDIRECT(ADDRESS(V391,18)))</f>
+        <v>29975</v>
+      </c>
+      <c r="T391" s="21">
+        <v>19</v>
+      </c>
+      <c r="U391" s="22">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="V391" s="23">
+        <f t="shared" si="1"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="392" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B392" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U392,1)):INDIRECT(ADDRESS(V392,3)))</f>
+        <v>13699</v>
+      </c>
+      <c r="E392">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U392,4)):INDIRECT(ADDRESS(V392,6)))</f>
+        <v>33190</v>
+      </c>
+      <c r="H392">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U392,7)):INDIRECT(ADDRESS(V392,9)))</f>
+        <v>23795</v>
+      </c>
+      <c r="K392">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U392,10)):INDIRECT(ADDRESS(V392,12)))</f>
+        <v>46559</v>
+      </c>
+      <c r="N392">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U392,13)):INDIRECT(ADDRESS(V392,15)))</f>
+        <v>14128</v>
+      </c>
+      <c r="Q392">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U392,16)):INDIRECT(ADDRESS(V392,18)))</f>
+        <v>24195</v>
+      </c>
+      <c r="T392" s="21">
+        <v>20</v>
+      </c>
+      <c r="U392" s="22">
+        <f t="shared" si="2"/>
+        <v>269</v>
+      </c>
+      <c r="V392" s="23">
+        <f t="shared" si="1"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="393" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B393" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U393,1)):INDIRECT(ADDRESS(V393,3)))</f>
+        <v>16350</v>
+      </c>
+      <c r="E393">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U393,4)):INDIRECT(ADDRESS(V393,6)))</f>
+        <v>32193</v>
+      </c>
+      <c r="H393">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U393,7)):INDIRECT(ADDRESS(V393,9)))</f>
+        <v>23976</v>
+      </c>
+      <c r="K393">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U393,10)):INDIRECT(ADDRESS(V393,12)))</f>
+        <v>49154</v>
+      </c>
+      <c r="N393">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U393,13)):INDIRECT(ADDRESS(V393,15)))</f>
+        <v>13186</v>
+      </c>
+      <c r="Q393">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U393,16)):INDIRECT(ADDRESS(V393,18)))</f>
+        <v>19832</v>
+      </c>
+      <c r="T393" s="21">
+        <v>21</v>
+      </c>
+      <c r="U393" s="22">
+        <f t="shared" si="2"/>
+        <v>283</v>
+      </c>
+      <c r="V393" s="23">
+        <f t="shared" si="1"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="394" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B394" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U394,1)):INDIRECT(ADDRESS(V394,3)))</f>
+        <v>14466</v>
+      </c>
+      <c r="E394">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U394,4)):INDIRECT(ADDRESS(V394,6)))</f>
+        <v>37986</v>
+      </c>
+      <c r="H394">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U394,7)):INDIRECT(ADDRESS(V394,9)))</f>
+        <v>24582</v>
+      </c>
+      <c r="K394">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U394,10)):INDIRECT(ADDRESS(V394,12)))</f>
+        <v>52281</v>
+      </c>
+      <c r="N394">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U394,13)):INDIRECT(ADDRESS(V394,15)))</f>
+        <v>13756</v>
+      </c>
+      <c r="Q394">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U394,16)):INDIRECT(ADDRESS(V394,18)))</f>
+        <v>24044</v>
+      </c>
+      <c r="T394" s="21">
+        <v>22</v>
+      </c>
+      <c r="U394" s="22">
+        <f t="shared" si="2"/>
+        <v>297</v>
+      </c>
+      <c r="V394" s="23">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="395" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B395" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U395,1)):INDIRECT(ADDRESS(V395,3)))</f>
+        <v>14219</v>
+      </c>
+      <c r="E395">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U395,4)):INDIRECT(ADDRESS(V395,6)))</f>
+        <v>32669</v>
+      </c>
+      <c r="H395">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U395,7)):INDIRECT(ADDRESS(V395,9)))</f>
+        <v>25128</v>
+      </c>
+      <c r="K395">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U395,10)):INDIRECT(ADDRESS(V395,12)))</f>
+        <v>51345</v>
+      </c>
+      <c r="N395">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U395,13)):INDIRECT(ADDRESS(V395,15)))</f>
+        <v>12421</v>
+      </c>
+      <c r="Q395">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U395,16)):INDIRECT(ADDRESS(V395,18)))</f>
+        <v>24204</v>
+      </c>
+      <c r="T395" s="21">
+        <v>23</v>
+      </c>
+      <c r="U395" s="22">
+        <f t="shared" si="2"/>
+        <v>311</v>
+      </c>
+      <c r="V395" s="23">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="396" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B396" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U396,1)):INDIRECT(ADDRESS(V396,3)))</f>
+        <v>17278</v>
+      </c>
+      <c r="E396">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U396,4)):INDIRECT(ADDRESS(V396,6)))</f>
+        <v>35247</v>
+      </c>
+      <c r="H396">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U396,7)):INDIRECT(ADDRESS(V396,9)))</f>
+        <v>27145</v>
+      </c>
+      <c r="K396">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U396,10)):INDIRECT(ADDRESS(V396,12)))</f>
+        <v>49876</v>
+      </c>
+      <c r="N396">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U396,13)):INDIRECT(ADDRESS(V396,15)))</f>
+        <v>13418</v>
+      </c>
+      <c r="Q396">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U396,16)):INDIRECT(ADDRESS(V396,18)))</f>
+        <v>22715</v>
+      </c>
+      <c r="T396" s="21">
+        <v>24</v>
+      </c>
+      <c r="U396" s="22">
+        <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+      <c r="V396" s="23">
+        <f t="shared" si="1"/>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="397" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B397" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U397,1)):INDIRECT(ADDRESS(V397,3)))</f>
+        <v>19526</v>
+      </c>
+      <c r="E397">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U397,4)):INDIRECT(ADDRESS(V397,6)))</f>
+        <v>35834</v>
+      </c>
+      <c r="H397">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U397,7)):INDIRECT(ADDRESS(V397,9)))</f>
+        <v>27627</v>
+      </c>
+      <c r="K397">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U397,10)):INDIRECT(ADDRESS(V397,12)))</f>
+        <v>55426</v>
+      </c>
+      <c r="N397">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U397,13)):INDIRECT(ADDRESS(V397,15)))</f>
+        <v>15087</v>
+      </c>
+      <c r="Q397">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U397,16)):INDIRECT(ADDRESS(V397,18)))</f>
+        <v>20330</v>
+      </c>
+      <c r="T397" s="21">
+        <v>25</v>
+      </c>
+      <c r="U397" s="22">
+        <f t="shared" si="2"/>
+        <v>339</v>
+      </c>
+      <c r="V397" s="23">
+        <f t="shared" si="1"/>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="398" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B398" s="10">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U398,1)):INDIRECT(ADDRESS(V398,3)))</f>
+        <v>16211</v>
+      </c>
+      <c r="E398">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U398,4)):INDIRECT(ADDRESS(V398,6)))</f>
+        <v>38076</v>
+      </c>
+      <c r="H398">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U398,7)):INDIRECT(ADDRESS(V398,9)))</f>
+        <v>19303</v>
+      </c>
+      <c r="K398">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U398,10)):INDIRECT(ADDRESS(V398,12)))</f>
+        <v>44289</v>
+      </c>
+      <c r="N398">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U398,13)):INDIRECT(ADDRESS(V398,15)))</f>
+        <v>11848</v>
+      </c>
+      <c r="Q398">
+        <f ca="1">SUM(INDIRECT(ADDRESS(U398,16)):INDIRECT(ADDRESS(V398,18)))</f>
+        <v>14849</v>
+      </c>
+      <c r="T398" s="24">
+        <v>26</v>
+      </c>
+      <c r="U398" s="25">
+        <f t="shared" si="2"/>
+        <v>353</v>
+      </c>
+      <c r="V398" s="26">
+        <f t="shared" si="1"/>
+        <v>366</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="U371:V371"/>
+  </mergeCells>
   <conditionalFormatting sqref="A3:C366">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>0</formula>
@@ -21182,10 +22404,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:R366">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="#N/D">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="#N/D">
       <formula>NOT(ISERROR(SEARCH("#N/D",A3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>#N/A</formula>
     </cfRule>
   </conditionalFormatting>
